--- a/data-raw/SRUC_template_GC_input.xlsx
+++ b/data-raw/SRUC_template_GC_input.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plevy\Documents\RCflux\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="210" windowWidth="17865" windowHeight="11700" activeTab="4"/>
+    <workbookView xWindow="840" yWindow="210" windowWidth="17865" windowHeight="11700" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="standards" sheetId="5" r:id="rId1"/>
-    <sheet name="chambers" sheetId="6" r:id="rId2"/>
-    <sheet name="Flux_measurements" sheetId="7" r:id="rId3"/>
-    <sheet name="data" sheetId="3" r:id="rId4"/>
-    <sheet name="GC_samples_SRUC" sheetId="4" r:id="rId5"/>
+    <sheet name="Standards" sheetId="5" r:id="rId1"/>
+    <sheet name="Chambers" sheetId="6" r:id="rId2"/>
+    <sheet name="Flux_Measurements" sheetId="7" r:id="rId3"/>
+    <sheet name="GC_samples" sheetId="4" r:id="rId4"/>
+    <sheet name="GC_data" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -23,7 +28,7 @@
     <author>plevy</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +62,7 @@
     <author>plevy</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="179">
   <si>
     <t>HeaderName</t>
   </si>
@@ -181,33 +186,21 @@
     <t>NumberOfCol</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
     <t>P1-A-01</t>
   </si>
   <si>
     <t>NumberOfHead</t>
   </si>
   <si>
-    <t>S2</t>
-  </si>
-  <si>
     <t>P1-A-02</t>
   </si>
   <si>
     <t>Modified</t>
   </si>
   <si>
-    <t>S3</t>
-  </si>
-  <si>
     <t>P1-A-03</t>
   </si>
   <si>
-    <t>S4</t>
-  </si>
-  <si>
     <t>P1-A-04</t>
   </si>
   <si>
@@ -541,27 +534,15 @@
     <t>P2-D-03</t>
   </si>
   <si>
-    <t>s1</t>
-  </si>
-  <si>
     <t>P2-D-04</t>
   </si>
   <si>
-    <t>s2</t>
-  </si>
-  <si>
     <t>P2-D-05</t>
   </si>
   <si>
-    <t>s3</t>
-  </si>
-  <si>
     <t>P2-D-06</t>
   </si>
   <si>
-    <t>s4</t>
-  </si>
-  <si>
     <t>P2-D-07</t>
   </si>
   <si>
@@ -622,9 +603,6 @@
     <t>Sample Name</t>
   </si>
   <si>
-    <t>need to adjust to SRUC standards used!</t>
-  </si>
-  <si>
     <t>diameter_cm</t>
   </si>
   <si>
@@ -671,12 +649,15 @@
   </si>
   <si>
     <t>time_mins</t>
+  </si>
+  <si>
+    <t>Valid sample</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -728,7 +709,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -747,8 +728,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -788,32 +775,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -840,21 +807,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -873,8 +838,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -889,6 +852,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,6 +862,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -946,7 +913,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -981,7 +948,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1193,7 +1160,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1202,22 +1169,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>164</v>
+      <c r="A1" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>156</v>
       </c>
       <c r="B2" s="1">
         <v>1.26</v>
@@ -1228,13 +1195,11 @@
       <c r="D2" s="1">
         <v>0.19950000000000001</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>165</v>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>157</v>
       </c>
       <c r="B3" s="1">
         <v>1.83</v>
@@ -1246,9 +1211,9 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>166</v>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>158</v>
       </c>
       <c r="B4" s="1">
         <v>5.16</v>
@@ -1260,9 +1225,9 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>167</v>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>159</v>
       </c>
       <c r="B5" s="1">
         <v>101.1</v>
@@ -1282,11 +1247,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1297,40 +1260,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>178</v>
+      <c r="A1" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1338,7 +1301,7 @@
       <c r="C2">
         <v>39.9</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="23">
         <v>24.720000000000002</v>
       </c>
       <c r="E2">
@@ -1364,7 +1327,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1372,15 +1335,15 @@
       <c r="C3">
         <v>39.9</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="23">
         <v>23.42</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E25" si="0">PI()*(C3/100/2)^2</f>
+        <f t="shared" ref="E3:E10" si="0">PI()*(C3/100/2)^2</f>
         <v>0.12503617301103714</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F25" si="1">E3*D3/100</f>
+        <f t="shared" ref="F3:F10" si="1">E3*D3/100</f>
         <v>2.9283471719184901E-2</v>
       </c>
       <c r="G3">
@@ -1398,7 +1361,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1406,7 +1369,7 @@
       <c r="C4">
         <v>39.9</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="23">
         <v>26.32</v>
       </c>
       <c r="E4">
@@ -1432,7 +1395,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1440,7 +1403,7 @@
       <c r="C5">
         <v>39.9</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="23">
         <v>25.160000000000004</v>
       </c>
       <c r="E5">
@@ -1466,7 +1429,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1474,7 +1437,7 @@
       <c r="C6">
         <v>39.9</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="23">
         <v>25.07</v>
       </c>
       <c r="E6">
@@ -1500,7 +1463,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1508,7 +1471,7 @@
       <c r="C7">
         <v>39.9</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="23">
         <v>24.330000000000002</v>
       </c>
       <c r="E7">
@@ -1534,7 +1497,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1542,7 +1505,7 @@
       <c r="C8">
         <v>39.9</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="23">
         <v>25.94</v>
       </c>
       <c r="E8">
@@ -1568,7 +1531,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1576,7 +1539,7 @@
       <c r="C9">
         <v>39.9</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="23">
         <v>23.89</v>
       </c>
       <c r="E9">
@@ -1602,7 +1565,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1610,7 +1573,7 @@
       <c r="C10">
         <v>39.9</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="23">
         <v>24.18</v>
       </c>
       <c r="E10">
@@ -1635,13 +1598,174 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D11" s="27"/>
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>39.9</v>
+      </c>
+      <c r="D11" s="23">
+        <v>24.18</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:E15" si="2">PI()*(C11/100/2)^2</f>
+        <v>0.12503617301103714</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F15" si="3">E11*D11/100</f>
+        <v>3.0233746634068779E-2</v>
+      </c>
+      <c r="G11">
+        <v>-3</v>
+      </c>
+      <c r="H11">
+        <v>56</v>
+      </c>
+      <c r="I11">
+        <v>500000</v>
+      </c>
+      <c r="J11">
+        <v>600000</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D12" s="27"/>
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>39.9</v>
+      </c>
+      <c r="D12" s="23">
+        <v>24.18</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>0.12503617301103714</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>3.0233746634068779E-2</v>
+      </c>
+      <c r="G12">
+        <v>-3</v>
+      </c>
+      <c r="H12">
+        <v>56</v>
+      </c>
+      <c r="I12">
+        <v>500000</v>
+      </c>
+      <c r="J12">
+        <v>600000</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D13" s="27"/>
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>39.9</v>
+      </c>
+      <c r="D13" s="23">
+        <v>24.18</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>0.12503617301103714</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>3.0233746634068779E-2</v>
+      </c>
+      <c r="G13">
+        <v>-3</v>
+      </c>
+      <c r="H13">
+        <v>56</v>
+      </c>
+      <c r="I13">
+        <v>500000</v>
+      </c>
+      <c r="J13">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>39.9</v>
+      </c>
+      <c r="D14" s="23">
+        <v>24.18</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>0.12503617301103714</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>3.0233746634068779E-2</v>
+      </c>
+      <c r="G14">
+        <v>-3</v>
+      </c>
+      <c r="H14">
+        <v>56</v>
+      </c>
+      <c r="I14">
+        <v>500000</v>
+      </c>
+      <c r="J14">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>39.9</v>
+      </c>
+      <c r="D15" s="23">
+        <v>24.18</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>0.12503617301103714</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>3.0233746634068779E-2</v>
+      </c>
+      <c r="G15">
+        <v>-3</v>
+      </c>
+      <c r="H15">
+        <v>56</v>
+      </c>
+      <c r="I15">
+        <v>500000</v>
+      </c>
+      <c r="J15">
+        <v>600000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1653,13 +1777,13 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H9" sqref="H9:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
@@ -1668,46 +1792,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>185</v>
+      <c r="A1" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B2">
         <v>2013</v>
@@ -1721,32 +1845,32 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="29" t="str">
+      <c r="F2" s="25" t="str">
         <f>A2&amp;"_"&amp;TEXT(B2,"0000")&amp;"_"&amp;TEXT(C2,"00")&amp;"_"&amp;TEXT(D2,"00")&amp;"_"&amp;TEXT(E2,"00")</f>
         <v>EB_2013_06_06_01</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="26">
         <v>41431</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="27">
         <v>0.43402777777777773</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="23">
         <v>16</v>
       </c>
       <c r="J2">
         <v>1000</v>
       </c>
-      <c r="K2" s="27">
+      <c r="K2" s="23">
         <v>33.5</v>
       </c>
-      <c r="L2" s="27">
+      <c r="L2" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B3">
         <v>2013</v>
@@ -1760,32 +1884,32 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="29" t="str">
-        <f t="shared" ref="F3:F25" si="0">A3&amp;"_"&amp;TEXT(B3,"0000")&amp;"_"&amp;TEXT(C3,"00")&amp;"_"&amp;TEXT(D3,"00")&amp;"_"&amp;TEXT(E3,"00")</f>
+      <c r="F3" s="25" t="str">
+        <f t="shared" ref="F3:F10" si="0">A3&amp;"_"&amp;TEXT(B3,"0000")&amp;"_"&amp;TEXT(C3,"00")&amp;"_"&amp;TEXT(D3,"00")&amp;"_"&amp;TEXT(E3,"00")</f>
         <v>EB_2013_06_06_02</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="26">
         <v>41431</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="27">
         <v>0.43472222222222218</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="23">
         <v>17</v>
       </c>
       <c r="J3">
         <v>1000</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="23">
         <v>33.5</v>
       </c>
-      <c r="L3" s="27">
+      <c r="L3" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B4">
         <v>2013</v>
@@ -1799,32 +1923,32 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="29" t="str">
+      <c r="F4" s="25" t="str">
         <f t="shared" si="0"/>
         <v>EB_2013_06_06_03</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="26">
         <v>41431</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="27">
         <v>0.43611111111111106</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="23">
         <v>16.100000000000001</v>
       </c>
       <c r="J4">
         <v>1000</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="23">
         <v>36.299999999999997</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B5">
         <v>2013</v>
@@ -1838,32 +1962,32 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" s="29" t="str">
+      <c r="F5" s="25" t="str">
         <f t="shared" si="0"/>
         <v>EB_2013_06_06_04</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="26">
         <v>41431</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="27">
         <v>0.43749999999999994</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="23">
         <v>15.9</v>
       </c>
       <c r="J5">
         <v>1000</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="23">
         <v>40.9</v>
       </c>
-      <c r="L5" s="27">
+      <c r="L5" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B6">
         <v>2013</v>
@@ -1877,32 +2001,32 @@
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" s="29" t="str">
+      <c r="F6" s="25" t="str">
         <f t="shared" si="0"/>
         <v>EB_2013_06_06_05</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="26">
         <v>41431</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="27">
         <v>0.43888888888888883</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="23">
         <v>16</v>
       </c>
       <c r="J6">
         <v>1000</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="23">
         <v>40.700000000000003</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B7">
         <v>2013</v>
@@ -1916,32 +2040,32 @@
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" s="29" t="str">
+      <c r="F7" s="25" t="str">
         <f t="shared" si="0"/>
         <v>EB_2013_06_06_06</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="26">
         <v>41431</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="27">
         <v>0.43958333333333327</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="23">
         <v>16.2</v>
       </c>
       <c r="J7">
         <v>1000</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="23">
         <v>38.6</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B8">
         <v>2013</v>
@@ -1955,32 +2079,32 @@
       <c r="E8">
         <v>7</v>
       </c>
-      <c r="F8" s="29" t="str">
+      <c r="F8" s="25" t="str">
         <f t="shared" si="0"/>
         <v>EB_2013_06_06_07</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="26">
         <v>41431</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="27">
         <v>0.44097222222222215</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="23">
         <v>17.100000000000001</v>
       </c>
       <c r="J8">
         <v>1000</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="23">
         <v>38.6</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B9">
         <v>2013</v>
@@ -1994,32 +2118,32 @@
       <c r="E9">
         <v>8</v>
       </c>
-      <c r="F9" s="29" t="str">
+      <c r="F9" s="25" t="str">
         <f t="shared" si="0"/>
         <v>EB_2013_06_06_08</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="26">
         <v>41431</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="27">
         <v>0.4416666666666666</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="23">
         <v>17.3</v>
       </c>
       <c r="J9">
         <v>1000</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="23">
         <v>38.5</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="23">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B10">
         <v>2013</v>
@@ -2033,133 +2157,293 @@
       <c r="E10">
         <v>9</v>
       </c>
-      <c r="F10" s="29" t="str">
+      <c r="F10" s="25" t="str">
         <f t="shared" si="0"/>
         <v>EB_2013_06_06_09</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="26">
         <v>41431</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="27">
         <v>0.44305555555555554</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="23">
         <v>16.3</v>
       </c>
       <c r="J10">
         <v>1000</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="23">
         <v>39.1</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11">
+        <v>2013</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="25" t="str">
+        <f t="shared" ref="F11:F15" si="1">A11&amp;"_"&amp;TEXT(B11,"0000")&amp;"_"&amp;TEXT(C11,"00")&amp;"_"&amp;TEXT(D11,"00")&amp;"_"&amp;TEXT(E11,"00")</f>
+        <v>EB_2013_06_06_10</v>
+      </c>
+      <c r="G11" s="26">
+        <v>41431</v>
+      </c>
+      <c r="H11" s="27">
+        <v>0.44444444444444398</v>
+      </c>
+      <c r="I11" s="23">
+        <v>16.3</v>
+      </c>
+      <c r="J11">
+        <v>1000</v>
+      </c>
+      <c r="K11" s="23">
+        <v>39.1</v>
+      </c>
+      <c r="L11" s="23">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12">
+        <v>2013</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>EB_2013_06_06_11</v>
+      </c>
+      <c r="G12" s="26">
+        <v>41431</v>
+      </c>
+      <c r="H12" s="27">
+        <v>0.44583333333333303</v>
+      </c>
+      <c r="I12" s="23">
+        <v>16.3</v>
+      </c>
+      <c r="J12">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="23">
+        <v>39.1</v>
+      </c>
+      <c r="L12" s="23">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13">
+        <v>2013</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>EB_2013_06_06_12</v>
+      </c>
+      <c r="G13" s="26">
+        <v>41431</v>
+      </c>
+      <c r="H13" s="27">
+        <v>0.44722222222222202</v>
+      </c>
+      <c r="I13" s="23">
+        <v>16.3</v>
+      </c>
+      <c r="J13">
+        <v>1000</v>
+      </c>
+      <c r="K13" s="23">
+        <v>39.1</v>
+      </c>
+      <c r="L13" s="23">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
+      <c r="A14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>EB_2013_06_06_13</v>
+      </c>
+      <c r="G14" s="26">
+        <v>41431</v>
+      </c>
+      <c r="H14" s="27">
+        <v>0.44861111111111102</v>
+      </c>
+      <c r="I14" s="23">
+        <v>16.3</v>
+      </c>
+      <c r="J14">
+        <v>1000</v>
+      </c>
+      <c r="K14" s="23">
+        <v>39.1</v>
+      </c>
+      <c r="L14" s="23">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
+      <c r="A15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15">
+        <v>2013</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>EB_2013_06_06_14</v>
+      </c>
+      <c r="G15" s="26">
+        <v>41431</v>
+      </c>
+      <c r="H15" s="27">
+        <v>0.45</v>
+      </c>
+      <c r="I15" s="23">
+        <v>16.3</v>
+      </c>
+      <c r="J15">
+        <v>1000</v>
+      </c>
+      <c r="K15" s="23">
+        <v>39.1</v>
+      </c>
+      <c r="L15" s="23">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G16" s="30"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
     </row>
     <row r="17" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G17" s="30"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
     </row>
     <row r="18" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
     </row>
     <row r="19" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
     </row>
     <row r="20" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
     </row>
     <row r="21" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
     </row>
     <row r="22" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
     </row>
     <row r="23" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
     </row>
     <row r="24" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
     </row>
     <row r="25" spans="7:12" x14ac:dyDescent="0.2">
-      <c r="G25" s="30"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2168,11 +2452,2761 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9" style="18"/>
+    <col min="7" max="7" width="9.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="18"/>
+    <col min="9" max="9" width="26.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="256" width="9" style="18"/>
+    <col min="257" max="257" width="27.375" style="18" customWidth="1"/>
+    <col min="258" max="262" width="9" style="18"/>
+    <col min="263" max="263" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="264" max="512" width="9" style="18"/>
+    <col min="513" max="513" width="27.375" style="18" customWidth="1"/>
+    <col min="514" max="518" width="9" style="18"/>
+    <col min="519" max="519" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="520" max="768" width="9" style="18"/>
+    <col min="769" max="769" width="27.375" style="18" customWidth="1"/>
+    <col min="770" max="774" width="9" style="18"/>
+    <col min="775" max="775" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="776" max="1024" width="9" style="18"/>
+    <col min="1025" max="1025" width="27.375" style="18" customWidth="1"/>
+    <col min="1026" max="1030" width="9" style="18"/>
+    <col min="1031" max="1031" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1280" width="9" style="18"/>
+    <col min="1281" max="1281" width="27.375" style="18" customWidth="1"/>
+    <col min="1282" max="1286" width="9" style="18"/>
+    <col min="1287" max="1287" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1536" width="9" style="18"/>
+    <col min="1537" max="1537" width="27.375" style="18" customWidth="1"/>
+    <col min="1538" max="1542" width="9" style="18"/>
+    <col min="1543" max="1543" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1792" width="9" style="18"/>
+    <col min="1793" max="1793" width="27.375" style="18" customWidth="1"/>
+    <col min="1794" max="1798" width="9" style="18"/>
+    <col min="1799" max="1799" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="1800" max="2048" width="9" style="18"/>
+    <col min="2049" max="2049" width="27.375" style="18" customWidth="1"/>
+    <col min="2050" max="2054" width="9" style="18"/>
+    <col min="2055" max="2055" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2304" width="9" style="18"/>
+    <col min="2305" max="2305" width="27.375" style="18" customWidth="1"/>
+    <col min="2306" max="2310" width="9" style="18"/>
+    <col min="2311" max="2311" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2560" width="9" style="18"/>
+    <col min="2561" max="2561" width="27.375" style="18" customWidth="1"/>
+    <col min="2562" max="2566" width="9" style="18"/>
+    <col min="2567" max="2567" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2816" width="9" style="18"/>
+    <col min="2817" max="2817" width="27.375" style="18" customWidth="1"/>
+    <col min="2818" max="2822" width="9" style="18"/>
+    <col min="2823" max="2823" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="2824" max="3072" width="9" style="18"/>
+    <col min="3073" max="3073" width="27.375" style="18" customWidth="1"/>
+    <col min="3074" max="3078" width="9" style="18"/>
+    <col min="3079" max="3079" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3328" width="9" style="18"/>
+    <col min="3329" max="3329" width="27.375" style="18" customWidth="1"/>
+    <col min="3330" max="3334" width="9" style="18"/>
+    <col min="3335" max="3335" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3584" width="9" style="18"/>
+    <col min="3585" max="3585" width="27.375" style="18" customWidth="1"/>
+    <col min="3586" max="3590" width="9" style="18"/>
+    <col min="3591" max="3591" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3840" width="9" style="18"/>
+    <col min="3841" max="3841" width="27.375" style="18" customWidth="1"/>
+    <col min="3842" max="3846" width="9" style="18"/>
+    <col min="3847" max="3847" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="3848" max="4096" width="9" style="18"/>
+    <col min="4097" max="4097" width="27.375" style="18" customWidth="1"/>
+    <col min="4098" max="4102" width="9" style="18"/>
+    <col min="4103" max="4103" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4352" width="9" style="18"/>
+    <col min="4353" max="4353" width="27.375" style="18" customWidth="1"/>
+    <col min="4354" max="4358" width="9" style="18"/>
+    <col min="4359" max="4359" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4608" width="9" style="18"/>
+    <col min="4609" max="4609" width="27.375" style="18" customWidth="1"/>
+    <col min="4610" max="4614" width="9" style="18"/>
+    <col min="4615" max="4615" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4864" width="9" style="18"/>
+    <col min="4865" max="4865" width="27.375" style="18" customWidth="1"/>
+    <col min="4866" max="4870" width="9" style="18"/>
+    <col min="4871" max="4871" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="4872" max="5120" width="9" style="18"/>
+    <col min="5121" max="5121" width="27.375" style="18" customWidth="1"/>
+    <col min="5122" max="5126" width="9" style="18"/>
+    <col min="5127" max="5127" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5376" width="9" style="18"/>
+    <col min="5377" max="5377" width="27.375" style="18" customWidth="1"/>
+    <col min="5378" max="5382" width="9" style="18"/>
+    <col min="5383" max="5383" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5632" width="9" style="18"/>
+    <col min="5633" max="5633" width="27.375" style="18" customWidth="1"/>
+    <col min="5634" max="5638" width="9" style="18"/>
+    <col min="5639" max="5639" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5888" width="9" style="18"/>
+    <col min="5889" max="5889" width="27.375" style="18" customWidth="1"/>
+    <col min="5890" max="5894" width="9" style="18"/>
+    <col min="5895" max="5895" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="5896" max="6144" width="9" style="18"/>
+    <col min="6145" max="6145" width="27.375" style="18" customWidth="1"/>
+    <col min="6146" max="6150" width="9" style="18"/>
+    <col min="6151" max="6151" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6400" width="9" style="18"/>
+    <col min="6401" max="6401" width="27.375" style="18" customWidth="1"/>
+    <col min="6402" max="6406" width="9" style="18"/>
+    <col min="6407" max="6407" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6656" width="9" style="18"/>
+    <col min="6657" max="6657" width="27.375" style="18" customWidth="1"/>
+    <col min="6658" max="6662" width="9" style="18"/>
+    <col min="6663" max="6663" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6912" width="9" style="18"/>
+    <col min="6913" max="6913" width="27.375" style="18" customWidth="1"/>
+    <col min="6914" max="6918" width="9" style="18"/>
+    <col min="6919" max="6919" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="6920" max="7168" width="9" style="18"/>
+    <col min="7169" max="7169" width="27.375" style="18" customWidth="1"/>
+    <col min="7170" max="7174" width="9" style="18"/>
+    <col min="7175" max="7175" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7424" width="9" style="18"/>
+    <col min="7425" max="7425" width="27.375" style="18" customWidth="1"/>
+    <col min="7426" max="7430" width="9" style="18"/>
+    <col min="7431" max="7431" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7680" width="9" style="18"/>
+    <col min="7681" max="7681" width="27.375" style="18" customWidth="1"/>
+    <col min="7682" max="7686" width="9" style="18"/>
+    <col min="7687" max="7687" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7936" width="9" style="18"/>
+    <col min="7937" max="7937" width="27.375" style="18" customWidth="1"/>
+    <col min="7938" max="7942" width="9" style="18"/>
+    <col min="7943" max="7943" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="7944" max="8192" width="9" style="18"/>
+    <col min="8193" max="8193" width="27.375" style="18" customWidth="1"/>
+    <col min="8194" max="8198" width="9" style="18"/>
+    <col min="8199" max="8199" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8448" width="9" style="18"/>
+    <col min="8449" max="8449" width="27.375" style="18" customWidth="1"/>
+    <col min="8450" max="8454" width="9" style="18"/>
+    <col min="8455" max="8455" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8704" width="9" style="18"/>
+    <col min="8705" max="8705" width="27.375" style="18" customWidth="1"/>
+    <col min="8706" max="8710" width="9" style="18"/>
+    <col min="8711" max="8711" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8960" width="9" style="18"/>
+    <col min="8961" max="8961" width="27.375" style="18" customWidth="1"/>
+    <col min="8962" max="8966" width="9" style="18"/>
+    <col min="8967" max="8967" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="8968" max="9216" width="9" style="18"/>
+    <col min="9217" max="9217" width="27.375" style="18" customWidth="1"/>
+    <col min="9218" max="9222" width="9" style="18"/>
+    <col min="9223" max="9223" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9472" width="9" style="18"/>
+    <col min="9473" max="9473" width="27.375" style="18" customWidth="1"/>
+    <col min="9474" max="9478" width="9" style="18"/>
+    <col min="9479" max="9479" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9728" width="9" style="18"/>
+    <col min="9729" max="9729" width="27.375" style="18" customWidth="1"/>
+    <col min="9730" max="9734" width="9" style="18"/>
+    <col min="9735" max="9735" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9984" width="9" style="18"/>
+    <col min="9985" max="9985" width="27.375" style="18" customWidth="1"/>
+    <col min="9986" max="9990" width="9" style="18"/>
+    <col min="9991" max="9991" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="9992" max="10240" width="9" style="18"/>
+    <col min="10241" max="10241" width="27.375" style="18" customWidth="1"/>
+    <col min="10242" max="10246" width="9" style="18"/>
+    <col min="10247" max="10247" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10496" width="9" style="18"/>
+    <col min="10497" max="10497" width="27.375" style="18" customWidth="1"/>
+    <col min="10498" max="10502" width="9" style="18"/>
+    <col min="10503" max="10503" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10752" width="9" style="18"/>
+    <col min="10753" max="10753" width="27.375" style="18" customWidth="1"/>
+    <col min="10754" max="10758" width="9" style="18"/>
+    <col min="10759" max="10759" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="10760" max="11008" width="9" style="18"/>
+    <col min="11009" max="11009" width="27.375" style="18" customWidth="1"/>
+    <col min="11010" max="11014" width="9" style="18"/>
+    <col min="11015" max="11015" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11264" width="9" style="18"/>
+    <col min="11265" max="11265" width="27.375" style="18" customWidth="1"/>
+    <col min="11266" max="11270" width="9" style="18"/>
+    <col min="11271" max="11271" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11520" width="9" style="18"/>
+    <col min="11521" max="11521" width="27.375" style="18" customWidth="1"/>
+    <col min="11522" max="11526" width="9" style="18"/>
+    <col min="11527" max="11527" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11776" width="9" style="18"/>
+    <col min="11777" max="11777" width="27.375" style="18" customWidth="1"/>
+    <col min="11778" max="11782" width="9" style="18"/>
+    <col min="11783" max="11783" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="11784" max="12032" width="9" style="18"/>
+    <col min="12033" max="12033" width="27.375" style="18" customWidth="1"/>
+    <col min="12034" max="12038" width="9" style="18"/>
+    <col min="12039" max="12039" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12288" width="9" style="18"/>
+    <col min="12289" max="12289" width="27.375" style="18" customWidth="1"/>
+    <col min="12290" max="12294" width="9" style="18"/>
+    <col min="12295" max="12295" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12544" width="9" style="18"/>
+    <col min="12545" max="12545" width="27.375" style="18" customWidth="1"/>
+    <col min="12546" max="12550" width="9" style="18"/>
+    <col min="12551" max="12551" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12800" width="9" style="18"/>
+    <col min="12801" max="12801" width="27.375" style="18" customWidth="1"/>
+    <col min="12802" max="12806" width="9" style="18"/>
+    <col min="12807" max="12807" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="12808" max="13056" width="9" style="18"/>
+    <col min="13057" max="13057" width="27.375" style="18" customWidth="1"/>
+    <col min="13058" max="13062" width="9" style="18"/>
+    <col min="13063" max="13063" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13312" width="9" style="18"/>
+    <col min="13313" max="13313" width="27.375" style="18" customWidth="1"/>
+    <col min="13314" max="13318" width="9" style="18"/>
+    <col min="13319" max="13319" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13568" width="9" style="18"/>
+    <col min="13569" max="13569" width="27.375" style="18" customWidth="1"/>
+    <col min="13570" max="13574" width="9" style="18"/>
+    <col min="13575" max="13575" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13824" width="9" style="18"/>
+    <col min="13825" max="13825" width="27.375" style="18" customWidth="1"/>
+    <col min="13826" max="13830" width="9" style="18"/>
+    <col min="13831" max="13831" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="13832" max="14080" width="9" style="18"/>
+    <col min="14081" max="14081" width="27.375" style="18" customWidth="1"/>
+    <col min="14082" max="14086" width="9" style="18"/>
+    <col min="14087" max="14087" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14336" width="9" style="18"/>
+    <col min="14337" max="14337" width="27.375" style="18" customWidth="1"/>
+    <col min="14338" max="14342" width="9" style="18"/>
+    <col min="14343" max="14343" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14592" width="9" style="18"/>
+    <col min="14593" max="14593" width="27.375" style="18" customWidth="1"/>
+    <col min="14594" max="14598" width="9" style="18"/>
+    <col min="14599" max="14599" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14848" width="9" style="18"/>
+    <col min="14849" max="14849" width="27.375" style="18" customWidth="1"/>
+    <col min="14850" max="14854" width="9" style="18"/>
+    <col min="14855" max="14855" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="14856" max="15104" width="9" style="18"/>
+    <col min="15105" max="15105" width="27.375" style="18" customWidth="1"/>
+    <col min="15106" max="15110" width="9" style="18"/>
+    <col min="15111" max="15111" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15360" width="9" style="18"/>
+    <col min="15361" max="15361" width="27.375" style="18" customWidth="1"/>
+    <col min="15362" max="15366" width="9" style="18"/>
+    <col min="15367" max="15367" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15616" width="9" style="18"/>
+    <col min="15617" max="15617" width="27.375" style="18" customWidth="1"/>
+    <col min="15618" max="15622" width="9" style="18"/>
+    <col min="15623" max="15623" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15872" width="9" style="18"/>
+    <col min="15873" max="15873" width="27.375" style="18" customWidth="1"/>
+    <col min="15874" max="15878" width="9" style="18"/>
+    <col min="15879" max="15879" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="15880" max="16128" width="9" style="18"/>
+    <col min="16129" max="16129" width="27.375" style="18" customWidth="1"/>
+    <col min="16130" max="16134" width="9" style="18"/>
+    <col min="16135" max="16135" width="9.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E2" s="18">
+        <v>6</v>
+      </c>
+      <c r="F2" s="18">
+        <v>6</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="18">
+        <v>1</v>
+      </c>
+      <c r="I2" s="21" t="str">
+        <f>C2&amp;"_"&amp;TEXT(D2,"0000")&amp;"_"&amp;TEXT(E2,"00")&amp;"_"&amp;TEXT(F2,"00")&amp;"_"&amp;TEXT(G2,"00")&amp;"_"&amp;TEXT(H2,"00")</f>
+        <v>EB_2013_06_06_ cond std_01</v>
+      </c>
+      <c r="J2" s="29">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E3" s="18">
+        <v>6</v>
+      </c>
+      <c r="F3" s="18">
+        <v>6</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1</v>
+      </c>
+      <c r="I3" s="21" t="str">
+        <f t="shared" ref="I3:I65" si="0">C3&amp;"_"&amp;TEXT(D3,"0000")&amp;"_"&amp;TEXT(E3,"00")&amp;"_"&amp;TEXT(F3,"00")&amp;"_"&amp;TEXT(G3,"00")&amp;"_"&amp;TEXT(H3,"00")</f>
+        <v>EB_2013_06_06_Std1_01</v>
+      </c>
+      <c r="J3" s="29">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E4" s="18">
+        <v>6</v>
+      </c>
+      <c r="F4" s="18">
+        <v>6</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="18">
+        <v>1</v>
+      </c>
+      <c r="I4" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_Std2_01</v>
+      </c>
+      <c r="J4" s="29">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E5" s="18">
+        <v>6</v>
+      </c>
+      <c r="F5" s="18">
+        <v>6</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1</v>
+      </c>
+      <c r="I5" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_Std3_01</v>
+      </c>
+      <c r="J5" s="29">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E6" s="18">
+        <v>6</v>
+      </c>
+      <c r="F6" s="18">
+        <v>6</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1</v>
+      </c>
+      <c r="I6" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_Std4_01</v>
+      </c>
+      <c r="J6" s="29">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E7" s="18">
+        <v>6</v>
+      </c>
+      <c r="F7" s="18">
+        <v>6</v>
+      </c>
+      <c r="G7" s="20">
+        <v>1</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_01_00</v>
+      </c>
+      <c r="J7" s="29">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E8" s="18">
+        <v>6</v>
+      </c>
+      <c r="F8" s="18">
+        <v>6</v>
+      </c>
+      <c r="G8" s="20">
+        <v>1</v>
+      </c>
+      <c r="H8" s="18">
+        <v>15</v>
+      </c>
+      <c r="I8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_01_15</v>
+      </c>
+      <c r="J8" s="29">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E9" s="18">
+        <v>6</v>
+      </c>
+      <c r="F9" s="18">
+        <v>6</v>
+      </c>
+      <c r="G9" s="20">
+        <v>1</v>
+      </c>
+      <c r="H9" s="18">
+        <v>30</v>
+      </c>
+      <c r="I9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_01_30</v>
+      </c>
+      <c r="J9" s="29">
+        <v>32</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E10" s="18">
+        <v>6</v>
+      </c>
+      <c r="F10" s="18">
+        <v>6</v>
+      </c>
+      <c r="G10" s="20">
+        <v>1</v>
+      </c>
+      <c r="H10" s="18">
+        <v>45</v>
+      </c>
+      <c r="I10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_01_45</v>
+      </c>
+      <c r="J10" s="29">
+        <v>43</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E11" s="18">
+        <v>6</v>
+      </c>
+      <c r="F11" s="18">
+        <v>6</v>
+      </c>
+      <c r="G11" s="20">
+        <v>2</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+      <c r="I11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_02_00</v>
+      </c>
+      <c r="J11" s="29">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E12" s="18">
+        <v>6</v>
+      </c>
+      <c r="F12" s="18">
+        <v>6</v>
+      </c>
+      <c r="G12" s="20">
+        <v>2</v>
+      </c>
+      <c r="H12" s="18">
+        <v>15</v>
+      </c>
+      <c r="I12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_02_15</v>
+      </c>
+      <c r="J12" s="29">
+        <v>14</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E13" s="18">
+        <v>6</v>
+      </c>
+      <c r="F13" s="18">
+        <v>6</v>
+      </c>
+      <c r="G13" s="20">
+        <v>2</v>
+      </c>
+      <c r="H13" s="18">
+        <v>30</v>
+      </c>
+      <c r="I13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_02_30</v>
+      </c>
+      <c r="J13" s="29">
+        <v>32</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E14" s="18">
+        <v>6</v>
+      </c>
+      <c r="F14" s="18">
+        <v>6</v>
+      </c>
+      <c r="G14" s="20">
+        <v>2</v>
+      </c>
+      <c r="H14" s="18">
+        <v>45</v>
+      </c>
+      <c r="I14" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_02_45</v>
+      </c>
+      <c r="J14" s="29">
+        <v>43</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E15" s="18">
+        <v>6</v>
+      </c>
+      <c r="F15" s="18">
+        <v>6</v>
+      </c>
+      <c r="G15" s="20">
+        <v>3</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_03_00</v>
+      </c>
+      <c r="J15" s="29">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E16" s="18">
+        <v>6</v>
+      </c>
+      <c r="F16" s="18">
+        <v>6</v>
+      </c>
+      <c r="G16" s="20">
+        <v>3</v>
+      </c>
+      <c r="H16" s="18">
+        <v>15</v>
+      </c>
+      <c r="I16" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_03_15</v>
+      </c>
+      <c r="J16" s="29">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E17" s="18">
+        <v>6</v>
+      </c>
+      <c r="F17" s="18">
+        <v>6</v>
+      </c>
+      <c r="G17" s="20">
+        <v>3</v>
+      </c>
+      <c r="H17" s="18">
+        <v>30</v>
+      </c>
+      <c r="I17" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_03_30</v>
+      </c>
+      <c r="J17" s="29">
+        <v>32</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E18" s="18">
+        <v>6</v>
+      </c>
+      <c r="F18" s="18">
+        <v>6</v>
+      </c>
+      <c r="G18" s="20">
+        <v>3</v>
+      </c>
+      <c r="H18" s="18">
+        <v>45</v>
+      </c>
+      <c r="I18" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_03_45</v>
+      </c>
+      <c r="J18" s="29">
+        <v>43</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E19" s="18">
+        <v>6</v>
+      </c>
+      <c r="F19" s="18">
+        <v>6</v>
+      </c>
+      <c r="G19" s="20">
+        <v>4</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_04_00</v>
+      </c>
+      <c r="J19" s="29">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E20" s="18">
+        <v>6</v>
+      </c>
+      <c r="F20" s="18">
+        <v>6</v>
+      </c>
+      <c r="G20" s="20">
+        <v>4</v>
+      </c>
+      <c r="H20" s="18">
+        <v>15</v>
+      </c>
+      <c r="I20" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_04_15</v>
+      </c>
+      <c r="J20" s="29">
+        <v>14</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E21" s="18">
+        <v>6</v>
+      </c>
+      <c r="F21" s="18">
+        <v>6</v>
+      </c>
+      <c r="G21" s="20">
+        <v>4</v>
+      </c>
+      <c r="H21" s="18">
+        <v>30</v>
+      </c>
+      <c r="I21" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_04_30</v>
+      </c>
+      <c r="J21" s="29">
+        <v>32</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E22" s="18">
+        <v>6</v>
+      </c>
+      <c r="F22" s="18">
+        <v>6</v>
+      </c>
+      <c r="G22" s="20">
+        <v>4</v>
+      </c>
+      <c r="H22" s="18">
+        <v>45</v>
+      </c>
+      <c r="I22" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_04_45</v>
+      </c>
+      <c r="J22" s="29">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E23" s="18">
+        <v>6</v>
+      </c>
+      <c r="F23" s="18">
+        <v>6</v>
+      </c>
+      <c r="G23" s="20">
+        <v>5</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_05_00</v>
+      </c>
+      <c r="J23" s="29">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D24" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E24" s="18">
+        <v>6</v>
+      </c>
+      <c r="F24" s="18">
+        <v>6</v>
+      </c>
+      <c r="G24" s="20">
+        <v>5</v>
+      </c>
+      <c r="H24" s="18">
+        <v>15</v>
+      </c>
+      <c r="I24" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_05_15</v>
+      </c>
+      <c r="J24" s="29">
+        <v>14</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E25" s="18">
+        <v>6</v>
+      </c>
+      <c r="F25" s="18">
+        <v>6</v>
+      </c>
+      <c r="G25" s="20">
+        <v>5</v>
+      </c>
+      <c r="H25" s="18">
+        <v>30</v>
+      </c>
+      <c r="I25" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_05_30</v>
+      </c>
+      <c r="J25" s="29">
+        <v>32</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E26" s="18">
+        <v>6</v>
+      </c>
+      <c r="F26" s="18">
+        <v>6</v>
+      </c>
+      <c r="G26" s="20">
+        <v>5</v>
+      </c>
+      <c r="H26" s="18">
+        <v>45</v>
+      </c>
+      <c r="I26" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_05_45</v>
+      </c>
+      <c r="J26" s="29">
+        <v>43</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E27" s="18">
+        <v>6</v>
+      </c>
+      <c r="F27" s="18">
+        <v>6</v>
+      </c>
+      <c r="G27" s="20">
+        <v>6</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0</v>
+      </c>
+      <c r="I27" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_06_00</v>
+      </c>
+      <c r="J27" s="29">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E28" s="18">
+        <v>6</v>
+      </c>
+      <c r="F28" s="18">
+        <v>6</v>
+      </c>
+      <c r="G28" s="20">
+        <v>6</v>
+      </c>
+      <c r="H28" s="18">
+        <v>15</v>
+      </c>
+      <c r="I28" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_06_15</v>
+      </c>
+      <c r="J28" s="29">
+        <v>14</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E29" s="18">
+        <v>6</v>
+      </c>
+      <c r="F29" s="18">
+        <v>6</v>
+      </c>
+      <c r="G29" s="20">
+        <v>6</v>
+      </c>
+      <c r="H29" s="18">
+        <v>30</v>
+      </c>
+      <c r="I29" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_06_30</v>
+      </c>
+      <c r="J29" s="29">
+        <v>32</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E30" s="18">
+        <v>6</v>
+      </c>
+      <c r="F30" s="18">
+        <v>6</v>
+      </c>
+      <c r="G30" s="20">
+        <v>6</v>
+      </c>
+      <c r="H30" s="18">
+        <v>45</v>
+      </c>
+      <c r="I30" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_06_45</v>
+      </c>
+      <c r="J30" s="29">
+        <v>43</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E31" s="18">
+        <v>6</v>
+      </c>
+      <c r="F31" s="18">
+        <v>6</v>
+      </c>
+      <c r="G31" s="20">
+        <v>7</v>
+      </c>
+      <c r="H31" s="18">
+        <v>0</v>
+      </c>
+      <c r="I31" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_07_00</v>
+      </c>
+      <c r="J31" s="29">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E32" s="18">
+        <v>6</v>
+      </c>
+      <c r="F32" s="18">
+        <v>6</v>
+      </c>
+      <c r="G32" s="20">
+        <v>7</v>
+      </c>
+      <c r="H32" s="18">
+        <v>15</v>
+      </c>
+      <c r="I32" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_07_15</v>
+      </c>
+      <c r="J32" s="29">
+        <v>14</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E33" s="18">
+        <v>6</v>
+      </c>
+      <c r="F33" s="18">
+        <v>6</v>
+      </c>
+      <c r="G33" s="20">
+        <v>7</v>
+      </c>
+      <c r="H33" s="18">
+        <v>30</v>
+      </c>
+      <c r="I33" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_07_30</v>
+      </c>
+      <c r="J33" s="29">
+        <v>32</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E34" s="18">
+        <v>6</v>
+      </c>
+      <c r="F34" s="18">
+        <v>6</v>
+      </c>
+      <c r="G34" s="20">
+        <v>7</v>
+      </c>
+      <c r="H34" s="18">
+        <v>45</v>
+      </c>
+      <c r="I34" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_07_45</v>
+      </c>
+      <c r="J34" s="29">
+        <v>43</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E35" s="18">
+        <v>6</v>
+      </c>
+      <c r="F35" s="18">
+        <v>6</v>
+      </c>
+      <c r="G35" s="20">
+        <v>8</v>
+      </c>
+      <c r="H35" s="18">
+        <v>0</v>
+      </c>
+      <c r="I35" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_08_00</v>
+      </c>
+      <c r="J35" s="29">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E36" s="18">
+        <v>6</v>
+      </c>
+      <c r="F36" s="18">
+        <v>6</v>
+      </c>
+      <c r="G36" s="20">
+        <v>8</v>
+      </c>
+      <c r="H36" s="18">
+        <v>15</v>
+      </c>
+      <c r="I36" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_08_15</v>
+      </c>
+      <c r="J36" s="29">
+        <v>14</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E37" s="18">
+        <v>6</v>
+      </c>
+      <c r="F37" s="18">
+        <v>6</v>
+      </c>
+      <c r="G37" s="20">
+        <v>8</v>
+      </c>
+      <c r="H37" s="18">
+        <v>30</v>
+      </c>
+      <c r="I37" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_08_30</v>
+      </c>
+      <c r="J37" s="29">
+        <v>32</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E38" s="18">
+        <v>6</v>
+      </c>
+      <c r="F38" s="18">
+        <v>6</v>
+      </c>
+      <c r="G38" s="20">
+        <v>8</v>
+      </c>
+      <c r="H38" s="18">
+        <v>45</v>
+      </c>
+      <c r="I38" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_08_45</v>
+      </c>
+      <c r="J38" s="29">
+        <v>43</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E39" s="18">
+        <v>6</v>
+      </c>
+      <c r="F39" s="18">
+        <v>6</v>
+      </c>
+      <c r="G39" s="20">
+        <v>9</v>
+      </c>
+      <c r="H39" s="18">
+        <v>0</v>
+      </c>
+      <c r="I39" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_09_00</v>
+      </c>
+      <c r="J39" s="29">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E40" s="18">
+        <v>6</v>
+      </c>
+      <c r="F40" s="18">
+        <v>6</v>
+      </c>
+      <c r="G40" s="20">
+        <v>9</v>
+      </c>
+      <c r="H40" s="18">
+        <v>15</v>
+      </c>
+      <c r="I40" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_09_15</v>
+      </c>
+      <c r="J40" s="29">
+        <v>14</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E41" s="18">
+        <v>6</v>
+      </c>
+      <c r="F41" s="18">
+        <v>6</v>
+      </c>
+      <c r="G41" s="20">
+        <v>9</v>
+      </c>
+      <c r="H41" s="18">
+        <v>30</v>
+      </c>
+      <c r="I41" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_09_30</v>
+      </c>
+      <c r="J41" s="29">
+        <v>32</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E42" s="18">
+        <v>6</v>
+      </c>
+      <c r="F42" s="18">
+        <v>6</v>
+      </c>
+      <c r="G42" s="20">
+        <v>9</v>
+      </c>
+      <c r="H42" s="18">
+        <v>45</v>
+      </c>
+      <c r="I42" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_09_45</v>
+      </c>
+      <c r="J42" s="29">
+        <v>43</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E43" s="18">
+        <v>6</v>
+      </c>
+      <c r="F43" s="18">
+        <v>6</v>
+      </c>
+      <c r="G43" s="20">
+        <v>10</v>
+      </c>
+      <c r="H43" s="18">
+        <v>0</v>
+      </c>
+      <c r="I43" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_10_00</v>
+      </c>
+      <c r="J43" s="29">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E44" s="18">
+        <v>6</v>
+      </c>
+      <c r="F44" s="18">
+        <v>6</v>
+      </c>
+      <c r="G44" s="20">
+        <v>10</v>
+      </c>
+      <c r="H44" s="18">
+        <v>15</v>
+      </c>
+      <c r="I44" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_10_15</v>
+      </c>
+      <c r="J44" s="29">
+        <v>14</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E45" s="18">
+        <v>6</v>
+      </c>
+      <c r="F45" s="18">
+        <v>6</v>
+      </c>
+      <c r="G45" s="20">
+        <v>10</v>
+      </c>
+      <c r="H45" s="18">
+        <v>30</v>
+      </c>
+      <c r="I45" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_10_30</v>
+      </c>
+      <c r="J45" s="29">
+        <v>32</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E46" s="18">
+        <v>6</v>
+      </c>
+      <c r="F46" s="18">
+        <v>6</v>
+      </c>
+      <c r="G46" s="20">
+        <v>10</v>
+      </c>
+      <c r="H46" s="18">
+        <v>45</v>
+      </c>
+      <c r="I46" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_10_45</v>
+      </c>
+      <c r="J46" s="29">
+        <v>43</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E47" s="18">
+        <v>6</v>
+      </c>
+      <c r="F47" s="18">
+        <v>6</v>
+      </c>
+      <c r="G47" s="20">
+        <v>11</v>
+      </c>
+      <c r="H47" s="18">
+        <v>0</v>
+      </c>
+      <c r="I47" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_11_00</v>
+      </c>
+      <c r="J47" s="29">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E48" s="18">
+        <v>6</v>
+      </c>
+      <c r="F48" s="18">
+        <v>6</v>
+      </c>
+      <c r="G48" s="20">
+        <v>11</v>
+      </c>
+      <c r="H48" s="18">
+        <v>15</v>
+      </c>
+      <c r="I48" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_11_15</v>
+      </c>
+      <c r="J48" s="29">
+        <v>14</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E49" s="18">
+        <v>6</v>
+      </c>
+      <c r="F49" s="18">
+        <v>6</v>
+      </c>
+      <c r="G49" s="20">
+        <v>11</v>
+      </c>
+      <c r="H49" s="18">
+        <v>30</v>
+      </c>
+      <c r="I49" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_11_30</v>
+      </c>
+      <c r="J49" s="29">
+        <v>32</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E50" s="18">
+        <v>6</v>
+      </c>
+      <c r="F50" s="18">
+        <v>6</v>
+      </c>
+      <c r="G50" s="20">
+        <v>11</v>
+      </c>
+      <c r="H50" s="18">
+        <v>45</v>
+      </c>
+      <c r="I50" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_11_45</v>
+      </c>
+      <c r="J50" s="29">
+        <v>43</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E51" s="18">
+        <v>6</v>
+      </c>
+      <c r="F51" s="18">
+        <v>6</v>
+      </c>
+      <c r="G51" s="20">
+        <v>12</v>
+      </c>
+      <c r="H51" s="18">
+        <v>0</v>
+      </c>
+      <c r="I51" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_12_00</v>
+      </c>
+      <c r="J51" s="29">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E52" s="18">
+        <v>6</v>
+      </c>
+      <c r="F52" s="18">
+        <v>6</v>
+      </c>
+      <c r="G52" s="20">
+        <v>12</v>
+      </c>
+      <c r="H52" s="18">
+        <v>15</v>
+      </c>
+      <c r="I52" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_12_15</v>
+      </c>
+      <c r="J52" s="29">
+        <v>14</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E53" s="18">
+        <v>6</v>
+      </c>
+      <c r="F53" s="18">
+        <v>6</v>
+      </c>
+      <c r="G53" s="20">
+        <v>12</v>
+      </c>
+      <c r="H53" s="18">
+        <v>30</v>
+      </c>
+      <c r="I53" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_12_30</v>
+      </c>
+      <c r="J53" s="29">
+        <v>32</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E54" s="18">
+        <v>6</v>
+      </c>
+      <c r="F54" s="18">
+        <v>6</v>
+      </c>
+      <c r="G54" s="20">
+        <v>12</v>
+      </c>
+      <c r="H54" s="18">
+        <v>45</v>
+      </c>
+      <c r="I54" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_12_45</v>
+      </c>
+      <c r="J54" s="29">
+        <v>43</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E55" s="18">
+        <v>6</v>
+      </c>
+      <c r="F55" s="18">
+        <v>6</v>
+      </c>
+      <c r="G55" s="20">
+        <v>13</v>
+      </c>
+      <c r="H55" s="18">
+        <v>0</v>
+      </c>
+      <c r="I55" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_13_00</v>
+      </c>
+      <c r="J55" s="29">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E56" s="18">
+        <v>6</v>
+      </c>
+      <c r="F56" s="18">
+        <v>6</v>
+      </c>
+      <c r="G56" s="20">
+        <v>13</v>
+      </c>
+      <c r="H56" s="18">
+        <v>15</v>
+      </c>
+      <c r="I56" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_13_15</v>
+      </c>
+      <c r="J56" s="29">
+        <v>14</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E57" s="18">
+        <v>6</v>
+      </c>
+      <c r="F57" s="18">
+        <v>6</v>
+      </c>
+      <c r="G57" s="20">
+        <v>13</v>
+      </c>
+      <c r="H57" s="18">
+        <v>30</v>
+      </c>
+      <c r="I57" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_13_30</v>
+      </c>
+      <c r="J57" s="29">
+        <v>32</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E58" s="18">
+        <v>6</v>
+      </c>
+      <c r="F58" s="18">
+        <v>6</v>
+      </c>
+      <c r="G58" s="20">
+        <v>13</v>
+      </c>
+      <c r="H58" s="18">
+        <v>45</v>
+      </c>
+      <c r="I58" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_13_45</v>
+      </c>
+      <c r="J58" s="29">
+        <v>43</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E59" s="18">
+        <v>6</v>
+      </c>
+      <c r="F59" s="18">
+        <v>6</v>
+      </c>
+      <c r="G59" s="20">
+        <v>14</v>
+      </c>
+      <c r="H59" s="18">
+        <v>0</v>
+      </c>
+      <c r="I59" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_14_00</v>
+      </c>
+      <c r="J59" s="29">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E60" s="18">
+        <v>6</v>
+      </c>
+      <c r="F60" s="18">
+        <v>6</v>
+      </c>
+      <c r="G60" s="20">
+        <v>14</v>
+      </c>
+      <c r="H60" s="18">
+        <v>15</v>
+      </c>
+      <c r="I60" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_14_15</v>
+      </c>
+      <c r="J60" s="29">
+        <v>14</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E61" s="18">
+        <v>6</v>
+      </c>
+      <c r="F61" s="18">
+        <v>6</v>
+      </c>
+      <c r="G61" s="20">
+        <v>14</v>
+      </c>
+      <c r="H61" s="18">
+        <v>30</v>
+      </c>
+      <c r="I61" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_14_30</v>
+      </c>
+      <c r="J61" s="29">
+        <v>32</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E62" s="18">
+        <v>6</v>
+      </c>
+      <c r="F62" s="18">
+        <v>6</v>
+      </c>
+      <c r="G62" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="H62" s="18">
+        <v>2</v>
+      </c>
+      <c r="I62" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_Std1_02</v>
+      </c>
+      <c r="J62" s="29"/>
+      <c r="K62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D63" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E63" s="18">
+        <v>6</v>
+      </c>
+      <c r="F63" s="18">
+        <v>6</v>
+      </c>
+      <c r="G63" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H63" s="18">
+        <v>2</v>
+      </c>
+      <c r="I63" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_Std2_02</v>
+      </c>
+      <c r="J63" s="29"/>
+      <c r="K63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E64" s="18">
+        <v>6</v>
+      </c>
+      <c r="F64" s="18">
+        <v>6</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="H64" s="18">
+        <v>2</v>
+      </c>
+      <c r="I64" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_Std3_02</v>
+      </c>
+      <c r="J64" s="29"/>
+      <c r="K64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="18">
+        <v>2013</v>
+      </c>
+      <c r="E65" s="18">
+        <v>6</v>
+      </c>
+      <c r="F65" s="18">
+        <v>6</v>
+      </c>
+      <c r="G65" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="H65" s="18">
+        <v>2</v>
+      </c>
+      <c r="I65" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>EB_2013_06_06_Std4_02</v>
+      </c>
+      <c r="J65" s="29"/>
+      <c r="K65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J66" s="29"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J67" s="29"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J68" s="29"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J69" s="29"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J70" s="29"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J71" s="29"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J72" s="29"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J73" s="29"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J74" s="29"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J75" s="29"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J76" s="29"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J77" s="29"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J78" s="29"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J79" s="29"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J80" s="29"/>
+    </row>
+    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J81" s="29"/>
+    </row>
+    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J82" s="29"/>
+    </row>
+    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J83" s="29"/>
+    </row>
+    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J84" s="29"/>
+    </row>
+    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J85" s="29"/>
+    </row>
+    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J86" s="29"/>
+    </row>
+    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J87" s="29"/>
+    </row>
+    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J88" s="29"/>
+    </row>
+    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J89" s="29"/>
+    </row>
+    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J90" s="29"/>
+    </row>
+    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J91" s="29"/>
+    </row>
+    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J92" s="29"/>
+    </row>
+    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J93" s="29"/>
+    </row>
+    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J94" s="29"/>
+    </row>
+    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J95" s="29"/>
+    </row>
+    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J96" s="29"/>
+    </row>
+    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J97" s="29"/>
+    </row>
+    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J98" s="29"/>
+    </row>
+    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J99" s="29"/>
+    </row>
+    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J100" s="29"/>
+    </row>
+    <row r="101" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J101" s="29"/>
+    </row>
+    <row r="102" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J102" s="29"/>
+    </row>
+    <row r="103" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J103" s="29"/>
+    </row>
+    <row r="104" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J104" s="29"/>
+    </row>
+    <row r="105" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J105" s="29"/>
+    </row>
+    <row r="106" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J106" s="29"/>
+    </row>
+    <row r="107" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J107" s="29"/>
+    </row>
+    <row r="108" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J108" s="29"/>
+    </row>
+    <row r="109" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J109" s="29"/>
+    </row>
+    <row r="110" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J110" s="29"/>
+    </row>
+    <row r="111" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J111" s="29"/>
+    </row>
+    <row r="112" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J112" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C62" sqref="C62:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2301,242 +5335,242 @@
         <v>5.9335557008088928</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3">
         <v>17</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>73087.0234375</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.81771284341812134</v>
+      </c>
+      <c r="J3" s="6">
+        <v>998990</v>
+      </c>
+      <c r="K3" s="6">
+        <v>3.9445459842681885</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1.1261427402496338</v>
+      </c>
+      <c r="M3" s="7">
+        <v>2.8015879541454427</v>
+      </c>
+      <c r="N3" s="6">
+        <v>38.086147308349609</v>
+      </c>
+      <c r="O3" s="6">
+        <v>1.7570490837097168</v>
+      </c>
+      <c r="P3" s="7">
+        <v>467.18298235248136</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>97.726417541503906</v>
+      </c>
+      <c r="R3" s="6">
+        <v>2.1289844512939453</v>
+      </c>
+      <c r="S3" s="8">
+        <v>0.44964606161176707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7">
-        <v>3</v>
-      </c>
-      <c r="G3" s="7">
-        <v>2</v>
-      </c>
-      <c r="H3" s="7">
-        <v>73087.0234375</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0.81771284341812134</v>
-      </c>
-      <c r="J3" s="7">
-        <v>998990</v>
-      </c>
-      <c r="K3" s="7">
-        <v>3.9445459842681885</v>
-      </c>
-      <c r="L3" s="7">
-        <v>1.1261427402496338</v>
-      </c>
-      <c r="M3" s="8">
-        <v>2.8015879541454427</v>
-      </c>
-      <c r="N3" s="7">
-        <v>38.086147308349609</v>
-      </c>
-      <c r="O3" s="7">
-        <v>1.7570490837097168</v>
-      </c>
-      <c r="P3" s="8">
-        <v>467.18298235248136</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>97.726417541503906</v>
-      </c>
-      <c r="R3" s="7">
-        <v>2.1289844512939453</v>
-      </c>
-      <c r="S3" s="9">
-        <v>0.44964606161176707</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>25</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>3</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3</v>
+      </c>
+      <c r="H4" s="6">
+        <v>73624.75</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.81149661540985107</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1006339.9156677414</v>
+      </c>
+      <c r="K4" s="6">
+        <v>10.974277496337891</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1.1180967092514038</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>89.840896606445313</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1.7554302215576172</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1091.1372176128282</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>219.0594482421875</v>
+      </c>
+      <c r="R4" s="6">
+        <v>2.1306657791137695</v>
+      </c>
+      <c r="S4" s="8">
+        <v>7.4192655412025976</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
         <v>3</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G5" s="6">
+        <v>4</v>
+      </c>
+      <c r="H5" s="6">
+        <v>73372.90625</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.82029646635055542</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1002897.5893014523</v>
+      </c>
+      <c r="K5" s="6">
+        <v>6.9175386428833008</v>
+      </c>
+      <c r="L5" s="6">
+        <v>1.1253491640090942</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>431.16995239257813</v>
+      </c>
+      <c r="O5" s="6">
+        <v>1.7629821300506592</v>
+      </c>
+      <c r="P5" s="7">
+        <v>5859.2912571035422</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>988.49969482421875</v>
+      </c>
+      <c r="R5" s="6">
+        <v>2.1402387619018555</v>
+      </c>
+      <c r="S5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="C6" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
         <v>3</v>
       </c>
-      <c r="H4" s="7">
-        <v>73624.75</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0.81149661540985107</v>
-      </c>
-      <c r="J4" s="7">
-        <v>1006339.9156677414</v>
-      </c>
-      <c r="K4" s="7">
-        <v>10.974277496337891</v>
-      </c>
-      <c r="L4" s="7">
-        <v>1.1180967092514038</v>
-      </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>89.840896606445312</v>
-      </c>
-      <c r="O4" s="7">
-        <v>1.7554302215576172</v>
-      </c>
-      <c r="P4" s="8">
-        <v>1091.1372176128282</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>219.0594482421875</v>
-      </c>
-      <c r="R4" s="7">
-        <v>2.1306657791137695</v>
-      </c>
-      <c r="S4" s="9">
-        <v>7.4192655412025976</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>3</v>
-      </c>
-      <c r="G5" s="7">
-        <v>4</v>
-      </c>
-      <c r="H5" s="7">
-        <v>73372.90625</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0.82029646635055542</v>
-      </c>
-      <c r="J5" s="7">
-        <v>1002897.5893014523</v>
-      </c>
-      <c r="K5" s="7">
-        <v>6.9175386428833008</v>
-      </c>
-      <c r="L5" s="7">
-        <v>1.1253491640090942</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>431.16995239257812</v>
-      </c>
-      <c r="O5" s="7">
-        <v>1.7629821300506592</v>
-      </c>
-      <c r="P5" s="8">
-        <v>5859.2912571035422</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>988.49969482421875</v>
-      </c>
-      <c r="R5" s="7">
-        <v>2.1402387619018555</v>
-      </c>
-      <c r="S5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="11">
-        <v>1</v>
-      </c>
-      <c r="F6" s="11">
-        <v>3</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <v>5</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>73011.90625</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="9">
         <v>0.80568867921829224</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="9">
         <v>997963.26070195215</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="9">
         <v>24.018274307250977</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="9">
         <v>1.1079943180084229</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="10">
         <v>21.999721358365054</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="9">
         <v>864.42926025390625</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="9">
         <v>1.7465243339538574</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P6" s="10">
         <v>10183.558487866425</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="9">
         <v>1755.0179443359375</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="9">
         <v>2.1264121532440186</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="11">
         <v>10.694461752690739</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2586,10 +5620,10 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2619,7 +5653,7 @@
         <v>3.0472298708965573</v>
       </c>
       <c r="N8">
-        <v>71.376235961914062</v>
+        <v>71.376235961914063</v>
       </c>
       <c r="O8">
         <v>1.7636153697967529</v>
@@ -2639,10 +5673,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2672,7 +5706,7 @@
         <v>3.0907103601454171</v>
       </c>
       <c r="N9">
-        <v>72.150527954101562</v>
+        <v>72.150527954101563</v>
       </c>
       <c r="O9">
         <v>1.754410982131958</v>
@@ -2692,10 +5726,10 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2745,10 +5779,10 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2798,10 +5832,10 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2843,7 +5877,7 @@
         <v>98.801475524902344</v>
       </c>
       <c r="R12">
-        <v>2.1400070190429687</v>
+        <v>2.1400070190429688</v>
       </c>
       <c r="S12" s="1">
         <v>0.45464683681560208</v>
@@ -2851,10 +5885,10 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2904,10 +5938,10 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2946,7 +5980,7 @@
         <v>1421.6004383938061</v>
       </c>
       <c r="Q14">
-        <v>102.72903442382812</v>
+        <v>102.72903442382813</v>
       </c>
       <c r="R14">
         <v>2.1334834098815918</v>
@@ -2957,10 +5991,10 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2999,10 +6033,10 @@
         <v>1574.8661014219224</v>
       </c>
       <c r="Q15">
-        <v>97.874374389648437</v>
+        <v>97.874374389648438</v>
       </c>
       <c r="R15">
-        <v>2.1417770385742187</v>
+        <v>2.1417770385742188</v>
       </c>
       <c r="S15" s="1">
         <v>0.45033423083471369</v>
@@ -3010,10 +6044,10 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3043,7 +6077,7 @@
         <v>3.0060282036477872</v>
       </c>
       <c r="N16">
-        <v>129.63522338867187</v>
+        <v>129.63522338867188</v>
       </c>
       <c r="O16">
         <v>1.7543414831161499</v>
@@ -3063,10 +6097,10 @@
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -3096,7 +6130,7 @@
         <v>3.0470770981589088</v>
       </c>
       <c r="N17">
-        <v>117.43356323242187</v>
+        <v>117.43356323242188</v>
       </c>
       <c r="O17">
         <v>1.7609931230545044</v>
@@ -3116,10 +6150,10 @@
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -3169,10 +6203,10 @@
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -3222,10 +6256,10 @@
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -3255,7 +6289,7 @@
         <v>3.2403104412691768</v>
       </c>
       <c r="N20">
-        <v>116.15151977539062</v>
+        <v>116.15151977539063</v>
       </c>
       <c r="O20">
         <v>1.7612417936325073</v>
@@ -3275,10 +6309,10 @@
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -3328,10 +6362,10 @@
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -3381,10 +6415,10 @@
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -3434,10 +6468,10 @@
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3487,10 +6521,10 @@
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3540,10 +6574,10 @@
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -3593,10 +6627,10 @@
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3646,10 +6680,10 @@
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3699,10 +6733,10 @@
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -3752,10 +6786,10 @@
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3785,7 +6819,7 @@
         <v>2.9304052424737073</v>
       </c>
       <c r="N30">
-        <v>157.32882690429687</v>
+        <v>157.32882690429688</v>
       </c>
       <c r="O30">
         <v>1.7521620988845825</v>
@@ -3805,10 +6839,10 @@
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3858,10 +6892,10 @@
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3911,10 +6945,10 @@
     </row>
     <row r="33" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3944,7 +6978,7 @@
         <v>3.2944385062751098</v>
       </c>
       <c r="N33">
-        <v>177.29678344726562</v>
+        <v>177.29678344726563</v>
       </c>
       <c r="O33">
         <v>1.75827956199646</v>
@@ -3964,10 +6998,10 @@
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -4006,7 +7040,7 @@
         <v>1483.6281758391135</v>
       </c>
       <c r="Q34">
-        <v>110.08334350585937</v>
+        <v>110.08334350585938</v>
       </c>
       <c r="R34">
         <v>2.1356282234191895</v>
@@ -4017,10 +7051,10 @@
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -4041,7 +7075,7 @@
         <v>984019.57507312286</v>
       </c>
       <c r="K35">
-        <v>4.0581283569335937</v>
+        <v>4.0581283569335938</v>
       </c>
       <c r="L35">
         <v>1.1306204795837402</v>
@@ -4070,10 +7104,10 @@
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -4123,10 +7157,10 @@
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -4176,10 +7210,10 @@
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -4229,10 +7263,10 @@
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -4271,7 +7305,7 @@
         <v>1286.23118729919</v>
       </c>
       <c r="Q39">
-        <v>98.376663208007812</v>
+        <v>98.376663208007813</v>
       </c>
       <c r="R39">
         <v>2.1238229274749756</v>
@@ -4282,10 +7316,10 @@
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -4335,10 +7369,10 @@
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -4388,10 +7422,10 @@
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D42" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -4441,10 +7475,10 @@
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -4494,10 +7528,10 @@
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D44" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -4518,7 +7552,7 @@
         <v>977645.9961086628</v>
       </c>
       <c r="K44">
-        <v>4.0403671264648437</v>
+        <v>4.0403671264648438</v>
       </c>
       <c r="L44">
         <v>1.1316224336624146</v>
@@ -4547,10 +7581,10 @@
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -4600,10 +7634,10 @@
     </row>
     <row r="46" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D46" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -4653,10 +7687,10 @@
     </row>
     <row r="47" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -4706,10 +7740,10 @@
     </row>
     <row r="48" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -4739,7 +7773,7 @@
         <v>3.4890349470356217</v>
       </c>
       <c r="N48">
-        <v>132.06765747070312</v>
+        <v>132.06765747070313</v>
       </c>
       <c r="O48">
         <v>1.7668921947479248</v>
@@ -4759,10 +7793,10 @@
     </row>
     <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -4812,10 +7846,10 @@
     </row>
     <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D50" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -4865,10 +7899,10 @@
     </row>
     <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -4918,10 +7952,10 @@
     </row>
     <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D52" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -4951,7 +7985,7 @@
         <v>3.2141375070628233</v>
       </c>
       <c r="N52">
-        <v>123.84359741210937</v>
+        <v>123.84359741210938</v>
       </c>
       <c r="O52">
         <v>1.7611900568008423</v>
@@ -4960,7 +7994,7 @@
         <v>1475.5432803324854</v>
       </c>
       <c r="Q52">
-        <v>172.84469604492187</v>
+        <v>172.84469604492188</v>
       </c>
       <c r="R52">
         <v>2.1364543437957764</v>
@@ -4971,10 +8005,10 @@
     </row>
     <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D53" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -5013,7 +8047,7 @@
         <v>1531.8571198771319</v>
       </c>
       <c r="Q53">
-        <v>175.38381958007812</v>
+        <v>175.38381958007813</v>
       </c>
       <c r="R53">
         <v>2.1328835487365723</v>
@@ -5024,10 +8058,10 @@
     </row>
     <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D54" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -5057,7 +8091,7 @@
         <v>3.6121501639454112</v>
       </c>
       <c r="N54">
-        <v>123.21859741210937</v>
+        <v>123.21859741210938</v>
       </c>
       <c r="O54">
         <v>1.7663097381591797</v>
@@ -5077,10 +8111,10 @@
     </row>
     <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D55" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -5130,10 +8164,10 @@
     </row>
     <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D56" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -5183,10 +8217,10 @@
     </row>
     <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D57" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -5236,10 +8270,10 @@
     </row>
     <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D58" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -5289,10 +8323,10 @@
     </row>
     <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D59" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -5322,7 +8356,7 @@
         <v>3.5628305638522151</v>
       </c>
       <c r="N59">
-        <v>130.95980834960937</v>
+        <v>130.95980834960938</v>
       </c>
       <c r="O59">
         <v>1.7643008232116699</v>
@@ -5342,10 +8376,10 @@
     </row>
     <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D60" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -5395,10 +8429,10 @@
     </row>
     <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D61" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -5446,12 +8480,12 @@
         <v>0.31942793585628804</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C62" s="2" t="s">
-        <v>143</v>
+    <row r="62" spans="3:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="C62" s="30" t="s">
+        <v>156</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E62" s="3">
         <v>1</v>
@@ -5499,2722 +8533,166 @@
         <v>0.38219806364745368</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C63" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E63" s="7">
-        <v>1</v>
-      </c>
-      <c r="F63" s="7">
+    <row r="63" spans="3:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="C63" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E63" s="6">
+        <v>1</v>
+      </c>
+      <c r="F63" s="6">
         <v>3</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="6">
         <v>62</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H63" s="6">
         <v>73242.671875</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="6">
         <v>0.82255095243453979</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="6">
         <v>1001117.4807108691</v>
       </c>
-      <c r="K63" s="7">
+      <c r="K63" s="6">
         <v>11.855507850646973</v>
       </c>
-      <c r="L63" s="7">
+      <c r="L63" s="6">
         <v>1.1275206804275513</v>
       </c>
-      <c r="M63" s="8">
+      <c r="M63" s="7">
         <v>10.36748198353453</v>
       </c>
-      <c r="N63" s="7">
+      <c r="N63" s="6">
         <v>88.72296142578125</v>
       </c>
-      <c r="O63" s="7">
+      <c r="O63" s="6">
         <v>1.7666656970977783</v>
       </c>
-      <c r="P63" s="8">
+      <c r="P63" s="7">
         <v>1062.5849318091487</v>
       </c>
-      <c r="Q63" s="7">
+      <c r="Q63" s="6">
         <v>231.04457092285156</v>
       </c>
-      <c r="R63" s="7">
+      <c r="R63" s="6">
         <v>2.1425187587738037</v>
       </c>
-      <c r="S63" s="9">
+      <c r="S63" s="8">
         <v>1.0793001820874812</v>
       </c>
     </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C64" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E64" s="7">
-        <v>1</v>
-      </c>
-      <c r="F64" s="7">
+    <row r="64" spans="3:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="C64" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E64" s="6">
+        <v>1</v>
+      </c>
+      <c r="F64" s="6">
         <v>3</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="6">
         <v>63</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64" s="6">
         <v>73034.6953125</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="6">
         <v>0.81972199678421021</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="6">
         <v>998274.75300901453</v>
       </c>
-      <c r="K64" s="7">
+      <c r="K64" s="6">
         <v>7.395078182220459</v>
       </c>
-      <c r="L64" s="7">
+      <c r="L64" s="6">
         <v>1.1288317441940308</v>
       </c>
-      <c r="M64" s="8">
+      <c r="M64" s="7">
         <v>6.1016115664008241</v>
       </c>
-      <c r="N64" s="7">
+      <c r="N64" s="6">
         <v>433.4356689453125</v>
       </c>
-      <c r="O64" s="7">
+      <c r="O64" s="6">
         <v>1.7624332904815674</v>
       </c>
-      <c r="P64" s="8">
+      <c r="P64" s="7">
         <v>5115.8142203587313</v>
       </c>
-      <c r="Q64" s="7">
-        <v>1016.4673461914062</v>
-      </c>
-      <c r="R64" s="7">
+      <c r="Q64" s="6">
+        <v>1016.4673461914063</v>
+      </c>
+      <c r="R64" s="6">
         <v>2.1392865180969238</v>
       </c>
-      <c r="S64" s="9">
+      <c r="S64" s="8">
         <v>5.288720308247771</v>
       </c>
     </row>
-    <row r="65" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C65" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E65" s="11">
-        <v>1</v>
-      </c>
-      <c r="F65" s="11">
+    <row r="65" spans="3:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="C65" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E65" s="9">
+        <v>1</v>
+      </c>
+      <c r="F65" s="9">
         <v>3</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G65" s="9">
         <v>64</v>
       </c>
-      <c r="H65" s="11">
+      <c r="H65" s="9">
         <v>72539.78125</v>
       </c>
-      <c r="I65" s="11">
+      <c r="I65" s="9">
         <v>0.80731523036956787</v>
       </c>
-      <c r="J65" s="11">
+      <c r="J65" s="9">
         <v>991510.02000932314</v>
       </c>
-      <c r="K65" s="11">
+      <c r="K65" s="9">
         <v>24.712337493896484</v>
       </c>
-      <c r="L65" s="11">
+      <c r="L65" s="9">
         <v>1.1107591390609741</v>
       </c>
-      <c r="M65" s="12">
+      <c r="M65" s="10">
         <v>22.663510238725785</v>
       </c>
-      <c r="N65" s="11">
+      <c r="N65" s="9">
         <v>864.9661865234375</v>
       </c>
-      <c r="O65" s="11">
+      <c r="O65" s="9">
         <v>1.7481716871261597</v>
       </c>
-      <c r="P65" s="12">
+      <c r="P65" s="10">
         <v>10189.871818457328</v>
       </c>
-      <c r="Q65" s="11">
+      <c r="Q65" s="9">
         <v>1798.144775390625</v>
       </c>
-      <c r="R65" s="11">
+      <c r="R65" s="9">
         <v>2.1280984878540039</v>
       </c>
-      <c r="S65" s="13">
+      <c r="S65" s="11">
         <v>11.099683701307304</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J112"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="28.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9" style="20"/>
-    <col min="7" max="7" width="9.25" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="20"/>
-    <col min="9" max="9" width="26.375" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="256" width="9" style="20"/>
-    <col min="257" max="257" width="27.375" style="20" customWidth="1"/>
-    <col min="258" max="262" width="9" style="20"/>
-    <col min="263" max="263" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="264" max="512" width="9" style="20"/>
-    <col min="513" max="513" width="27.375" style="20" customWidth="1"/>
-    <col min="514" max="518" width="9" style="20"/>
-    <col min="519" max="519" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="520" max="768" width="9" style="20"/>
-    <col min="769" max="769" width="27.375" style="20" customWidth="1"/>
-    <col min="770" max="774" width="9" style="20"/>
-    <col min="775" max="775" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="776" max="1024" width="9" style="20"/>
-    <col min="1025" max="1025" width="27.375" style="20" customWidth="1"/>
-    <col min="1026" max="1030" width="9" style="20"/>
-    <col min="1031" max="1031" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1280" width="9" style="20"/>
-    <col min="1281" max="1281" width="27.375" style="20" customWidth="1"/>
-    <col min="1282" max="1286" width="9" style="20"/>
-    <col min="1287" max="1287" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1536" width="9" style="20"/>
-    <col min="1537" max="1537" width="27.375" style="20" customWidth="1"/>
-    <col min="1538" max="1542" width="9" style="20"/>
-    <col min="1543" max="1543" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1792" width="9" style="20"/>
-    <col min="1793" max="1793" width="27.375" style="20" customWidth="1"/>
-    <col min="1794" max="1798" width="9" style="20"/>
-    <col min="1799" max="1799" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="1800" max="2048" width="9" style="20"/>
-    <col min="2049" max="2049" width="27.375" style="20" customWidth="1"/>
-    <col min="2050" max="2054" width="9" style="20"/>
-    <col min="2055" max="2055" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2304" width="9" style="20"/>
-    <col min="2305" max="2305" width="27.375" style="20" customWidth="1"/>
-    <col min="2306" max="2310" width="9" style="20"/>
-    <col min="2311" max="2311" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2560" width="9" style="20"/>
-    <col min="2561" max="2561" width="27.375" style="20" customWidth="1"/>
-    <col min="2562" max="2566" width="9" style="20"/>
-    <col min="2567" max="2567" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2816" width="9" style="20"/>
-    <col min="2817" max="2817" width="27.375" style="20" customWidth="1"/>
-    <col min="2818" max="2822" width="9" style="20"/>
-    <col min="2823" max="2823" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="2824" max="3072" width="9" style="20"/>
-    <col min="3073" max="3073" width="27.375" style="20" customWidth="1"/>
-    <col min="3074" max="3078" width="9" style="20"/>
-    <col min="3079" max="3079" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3328" width="9" style="20"/>
-    <col min="3329" max="3329" width="27.375" style="20" customWidth="1"/>
-    <col min="3330" max="3334" width="9" style="20"/>
-    <col min="3335" max="3335" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3584" width="9" style="20"/>
-    <col min="3585" max="3585" width="27.375" style="20" customWidth="1"/>
-    <col min="3586" max="3590" width="9" style="20"/>
-    <col min="3591" max="3591" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3840" width="9" style="20"/>
-    <col min="3841" max="3841" width="27.375" style="20" customWidth="1"/>
-    <col min="3842" max="3846" width="9" style="20"/>
-    <col min="3847" max="3847" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="3848" max="4096" width="9" style="20"/>
-    <col min="4097" max="4097" width="27.375" style="20" customWidth="1"/>
-    <col min="4098" max="4102" width="9" style="20"/>
-    <col min="4103" max="4103" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4352" width="9" style="20"/>
-    <col min="4353" max="4353" width="27.375" style="20" customWidth="1"/>
-    <col min="4354" max="4358" width="9" style="20"/>
-    <col min="4359" max="4359" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4608" width="9" style="20"/>
-    <col min="4609" max="4609" width="27.375" style="20" customWidth="1"/>
-    <col min="4610" max="4614" width="9" style="20"/>
-    <col min="4615" max="4615" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4864" width="9" style="20"/>
-    <col min="4865" max="4865" width="27.375" style="20" customWidth="1"/>
-    <col min="4866" max="4870" width="9" style="20"/>
-    <col min="4871" max="4871" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="4872" max="5120" width="9" style="20"/>
-    <col min="5121" max="5121" width="27.375" style="20" customWidth="1"/>
-    <col min="5122" max="5126" width="9" style="20"/>
-    <col min="5127" max="5127" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5376" width="9" style="20"/>
-    <col min="5377" max="5377" width="27.375" style="20" customWidth="1"/>
-    <col min="5378" max="5382" width="9" style="20"/>
-    <col min="5383" max="5383" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5632" width="9" style="20"/>
-    <col min="5633" max="5633" width="27.375" style="20" customWidth="1"/>
-    <col min="5634" max="5638" width="9" style="20"/>
-    <col min="5639" max="5639" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5888" width="9" style="20"/>
-    <col min="5889" max="5889" width="27.375" style="20" customWidth="1"/>
-    <col min="5890" max="5894" width="9" style="20"/>
-    <col min="5895" max="5895" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="5896" max="6144" width="9" style="20"/>
-    <col min="6145" max="6145" width="27.375" style="20" customWidth="1"/>
-    <col min="6146" max="6150" width="9" style="20"/>
-    <col min="6151" max="6151" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6400" width="9" style="20"/>
-    <col min="6401" max="6401" width="27.375" style="20" customWidth="1"/>
-    <col min="6402" max="6406" width="9" style="20"/>
-    <col min="6407" max="6407" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6656" width="9" style="20"/>
-    <col min="6657" max="6657" width="27.375" style="20" customWidth="1"/>
-    <col min="6658" max="6662" width="9" style="20"/>
-    <col min="6663" max="6663" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6912" width="9" style="20"/>
-    <col min="6913" max="6913" width="27.375" style="20" customWidth="1"/>
-    <col min="6914" max="6918" width="9" style="20"/>
-    <col min="6919" max="6919" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="6920" max="7168" width="9" style="20"/>
-    <col min="7169" max="7169" width="27.375" style="20" customWidth="1"/>
-    <col min="7170" max="7174" width="9" style="20"/>
-    <col min="7175" max="7175" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7424" width="9" style="20"/>
-    <col min="7425" max="7425" width="27.375" style="20" customWidth="1"/>
-    <col min="7426" max="7430" width="9" style="20"/>
-    <col min="7431" max="7431" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7680" width="9" style="20"/>
-    <col min="7681" max="7681" width="27.375" style="20" customWidth="1"/>
-    <col min="7682" max="7686" width="9" style="20"/>
-    <col min="7687" max="7687" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7936" width="9" style="20"/>
-    <col min="7937" max="7937" width="27.375" style="20" customWidth="1"/>
-    <col min="7938" max="7942" width="9" style="20"/>
-    <col min="7943" max="7943" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="7944" max="8192" width="9" style="20"/>
-    <col min="8193" max="8193" width="27.375" style="20" customWidth="1"/>
-    <col min="8194" max="8198" width="9" style="20"/>
-    <col min="8199" max="8199" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8448" width="9" style="20"/>
-    <col min="8449" max="8449" width="27.375" style="20" customWidth="1"/>
-    <col min="8450" max="8454" width="9" style="20"/>
-    <col min="8455" max="8455" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8704" width="9" style="20"/>
-    <col min="8705" max="8705" width="27.375" style="20" customWidth="1"/>
-    <col min="8706" max="8710" width="9" style="20"/>
-    <col min="8711" max="8711" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8960" width="9" style="20"/>
-    <col min="8961" max="8961" width="27.375" style="20" customWidth="1"/>
-    <col min="8962" max="8966" width="9" style="20"/>
-    <col min="8967" max="8967" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="8968" max="9216" width="9" style="20"/>
-    <col min="9217" max="9217" width="27.375" style="20" customWidth="1"/>
-    <col min="9218" max="9222" width="9" style="20"/>
-    <col min="9223" max="9223" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9472" width="9" style="20"/>
-    <col min="9473" max="9473" width="27.375" style="20" customWidth="1"/>
-    <col min="9474" max="9478" width="9" style="20"/>
-    <col min="9479" max="9479" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9728" width="9" style="20"/>
-    <col min="9729" max="9729" width="27.375" style="20" customWidth="1"/>
-    <col min="9730" max="9734" width="9" style="20"/>
-    <col min="9735" max="9735" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9984" width="9" style="20"/>
-    <col min="9985" max="9985" width="27.375" style="20" customWidth="1"/>
-    <col min="9986" max="9990" width="9" style="20"/>
-    <col min="9991" max="9991" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="9992" max="10240" width="9" style="20"/>
-    <col min="10241" max="10241" width="27.375" style="20" customWidth="1"/>
-    <col min="10242" max="10246" width="9" style="20"/>
-    <col min="10247" max="10247" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10496" width="9" style="20"/>
-    <col min="10497" max="10497" width="27.375" style="20" customWidth="1"/>
-    <col min="10498" max="10502" width="9" style="20"/>
-    <col min="10503" max="10503" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10752" width="9" style="20"/>
-    <col min="10753" max="10753" width="27.375" style="20" customWidth="1"/>
-    <col min="10754" max="10758" width="9" style="20"/>
-    <col min="10759" max="10759" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="10760" max="11008" width="9" style="20"/>
-    <col min="11009" max="11009" width="27.375" style="20" customWidth="1"/>
-    <col min="11010" max="11014" width="9" style="20"/>
-    <col min="11015" max="11015" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11264" width="9" style="20"/>
-    <col min="11265" max="11265" width="27.375" style="20" customWidth="1"/>
-    <col min="11266" max="11270" width="9" style="20"/>
-    <col min="11271" max="11271" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11520" width="9" style="20"/>
-    <col min="11521" max="11521" width="27.375" style="20" customWidth="1"/>
-    <col min="11522" max="11526" width="9" style="20"/>
-    <col min="11527" max="11527" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11776" width="9" style="20"/>
-    <col min="11777" max="11777" width="27.375" style="20" customWidth="1"/>
-    <col min="11778" max="11782" width="9" style="20"/>
-    <col min="11783" max="11783" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="11784" max="12032" width="9" style="20"/>
-    <col min="12033" max="12033" width="27.375" style="20" customWidth="1"/>
-    <col min="12034" max="12038" width="9" style="20"/>
-    <col min="12039" max="12039" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12288" width="9" style="20"/>
-    <col min="12289" max="12289" width="27.375" style="20" customWidth="1"/>
-    <col min="12290" max="12294" width="9" style="20"/>
-    <col min="12295" max="12295" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12544" width="9" style="20"/>
-    <col min="12545" max="12545" width="27.375" style="20" customWidth="1"/>
-    <col min="12546" max="12550" width="9" style="20"/>
-    <col min="12551" max="12551" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12800" width="9" style="20"/>
-    <col min="12801" max="12801" width="27.375" style="20" customWidth="1"/>
-    <col min="12802" max="12806" width="9" style="20"/>
-    <col min="12807" max="12807" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="12808" max="13056" width="9" style="20"/>
-    <col min="13057" max="13057" width="27.375" style="20" customWidth="1"/>
-    <col min="13058" max="13062" width="9" style="20"/>
-    <col min="13063" max="13063" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13312" width="9" style="20"/>
-    <col min="13313" max="13313" width="27.375" style="20" customWidth="1"/>
-    <col min="13314" max="13318" width="9" style="20"/>
-    <col min="13319" max="13319" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13568" width="9" style="20"/>
-    <col min="13569" max="13569" width="27.375" style="20" customWidth="1"/>
-    <col min="13570" max="13574" width="9" style="20"/>
-    <col min="13575" max="13575" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13824" width="9" style="20"/>
-    <col min="13825" max="13825" width="27.375" style="20" customWidth="1"/>
-    <col min="13826" max="13830" width="9" style="20"/>
-    <col min="13831" max="13831" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="13832" max="14080" width="9" style="20"/>
-    <col min="14081" max="14081" width="27.375" style="20" customWidth="1"/>
-    <col min="14082" max="14086" width="9" style="20"/>
-    <col min="14087" max="14087" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14336" width="9" style="20"/>
-    <col min="14337" max="14337" width="27.375" style="20" customWidth="1"/>
-    <col min="14338" max="14342" width="9" style="20"/>
-    <col min="14343" max="14343" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14592" width="9" style="20"/>
-    <col min="14593" max="14593" width="27.375" style="20" customWidth="1"/>
-    <col min="14594" max="14598" width="9" style="20"/>
-    <col min="14599" max="14599" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14848" width="9" style="20"/>
-    <col min="14849" max="14849" width="27.375" style="20" customWidth="1"/>
-    <col min="14850" max="14854" width="9" style="20"/>
-    <col min="14855" max="14855" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="14856" max="15104" width="9" style="20"/>
-    <col min="15105" max="15105" width="27.375" style="20" customWidth="1"/>
-    <col min="15106" max="15110" width="9" style="20"/>
-    <col min="15111" max="15111" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15360" width="9" style="20"/>
-    <col min="15361" max="15361" width="27.375" style="20" customWidth="1"/>
-    <col min="15362" max="15366" width="9" style="20"/>
-    <col min="15367" max="15367" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15616" width="9" style="20"/>
-    <col min="15617" max="15617" width="27.375" style="20" customWidth="1"/>
-    <col min="15618" max="15622" width="9" style="20"/>
-    <col min="15623" max="15623" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15872" width="9" style="20"/>
-    <col min="15873" max="15873" width="27.375" style="20" customWidth="1"/>
-    <col min="15874" max="15878" width="9" style="20"/>
-    <col min="15879" max="15879" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="15880" max="16128" width="9" style="20"/>
-    <col min="16129" max="16129" width="27.375" style="20" customWidth="1"/>
-    <col min="16130" max="16134" width="9" style="20"/>
-    <col min="16135" max="16135" width="9.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16384" width="9" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E2" s="20">
-        <v>6</v>
-      </c>
-      <c r="F2" s="20">
-        <v>6</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="H2" s="20">
-        <v>1</v>
-      </c>
-      <c r="I2" s="23" t="str">
-        <f>C2&amp;"_"&amp;TEXT(D2,"0000")&amp;"_"&amp;TEXT(E2,"00")&amp;"_"&amp;TEXT(F2,"00")&amp;"_"&amp;TEXT(G2,"00")&amp;"_"&amp;TEXT(H2,"00")</f>
-        <v>EB_2013_06_06_ cond std_01</v>
-      </c>
-      <c r="J2" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E3" s="20">
-        <v>6</v>
-      </c>
-      <c r="F3" s="20">
-        <v>6</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="H3" s="20">
-        <v>1</v>
-      </c>
-      <c r="I3" s="23" t="str">
-        <f t="shared" ref="I3:I65" si="0">C3&amp;"_"&amp;TEXT(D3,"0000")&amp;"_"&amp;TEXT(E3,"00")&amp;"_"&amp;TEXT(F3,"00")&amp;"_"&amp;TEXT(G3,"00")&amp;"_"&amp;TEXT(H3,"00")</f>
-        <v>EB_2013_06_06_Std1_01</v>
-      </c>
-      <c r="J3" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E4" s="20">
-        <v>6</v>
-      </c>
-      <c r="F4" s="20">
-        <v>6</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="H4" s="20">
-        <v>1</v>
-      </c>
-      <c r="I4" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_Std2_01</v>
-      </c>
-      <c r="J4" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E5" s="20">
-        <v>6</v>
-      </c>
-      <c r="F5" s="20">
-        <v>6</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="H5" s="20">
-        <v>1</v>
-      </c>
-      <c r="I5" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_Std3_01</v>
-      </c>
-      <c r="J5" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D6" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E6" s="20">
-        <v>6</v>
-      </c>
-      <c r="F6" s="20">
-        <v>6</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="H6" s="20">
-        <v>1</v>
-      </c>
-      <c r="I6" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_Std4_01</v>
-      </c>
-      <c r="J6" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E7" s="20">
-        <v>6</v>
-      </c>
-      <c r="F7" s="20">
-        <v>6</v>
-      </c>
-      <c r="G7" s="22">
-        <v>1</v>
-      </c>
-      <c r="H7" s="20">
-        <v>0</v>
-      </c>
-      <c r="I7" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_01_00</v>
-      </c>
-      <c r="J7" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E8" s="20">
-        <v>6</v>
-      </c>
-      <c r="F8" s="20">
-        <v>6</v>
-      </c>
-      <c r="G8" s="22">
-        <v>1</v>
-      </c>
-      <c r="H8" s="20">
-        <v>15</v>
-      </c>
-      <c r="I8" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_01_15</v>
-      </c>
-      <c r="J8" s="33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E9" s="20">
-        <v>6</v>
-      </c>
-      <c r="F9" s="20">
-        <v>6</v>
-      </c>
-      <c r="G9" s="22">
-        <v>1</v>
-      </c>
-      <c r="H9" s="20">
-        <v>30</v>
-      </c>
-      <c r="I9" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_01_30</v>
-      </c>
-      <c r="J9" s="33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E10" s="20">
-        <v>6</v>
-      </c>
-      <c r="F10" s="20">
-        <v>6</v>
-      </c>
-      <c r="G10" s="22">
-        <v>1</v>
-      </c>
-      <c r="H10" s="20">
-        <v>45</v>
-      </c>
-      <c r="I10" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_01_45</v>
-      </c>
-      <c r="J10" s="33">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E11" s="20">
-        <v>6</v>
-      </c>
-      <c r="F11" s="20">
-        <v>6</v>
-      </c>
-      <c r="G11" s="22">
-        <v>2</v>
-      </c>
-      <c r="H11" s="20">
-        <v>0</v>
-      </c>
-      <c r="I11" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_02_00</v>
-      </c>
-      <c r="J11" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E12" s="20">
-        <v>6</v>
-      </c>
-      <c r="F12" s="20">
-        <v>6</v>
-      </c>
-      <c r="G12" s="22">
-        <v>2</v>
-      </c>
-      <c r="H12" s="20">
-        <v>15</v>
-      </c>
-      <c r="I12" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_02_15</v>
-      </c>
-      <c r="J12" s="33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E13" s="20">
-        <v>6</v>
-      </c>
-      <c r="F13" s="20">
-        <v>6</v>
-      </c>
-      <c r="G13" s="22">
-        <v>2</v>
-      </c>
-      <c r="H13" s="20">
-        <v>30</v>
-      </c>
-      <c r="I13" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_02_30</v>
-      </c>
-      <c r="J13" s="33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E14" s="20">
-        <v>6</v>
-      </c>
-      <c r="F14" s="20">
-        <v>6</v>
-      </c>
-      <c r="G14" s="22">
-        <v>2</v>
-      </c>
-      <c r="H14" s="20">
-        <v>45</v>
-      </c>
-      <c r="I14" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_02_45</v>
-      </c>
-      <c r="J14" s="33">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E15" s="20">
-        <v>6</v>
-      </c>
-      <c r="F15" s="20">
-        <v>6</v>
-      </c>
-      <c r="G15" s="22">
-        <v>3</v>
-      </c>
-      <c r="H15" s="20">
-        <v>0</v>
-      </c>
-      <c r="I15" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_03_00</v>
-      </c>
-      <c r="J15" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E16" s="20">
-        <v>6</v>
-      </c>
-      <c r="F16" s="20">
-        <v>6</v>
-      </c>
-      <c r="G16" s="22">
-        <v>3</v>
-      </c>
-      <c r="H16" s="20">
-        <v>15</v>
-      </c>
-      <c r="I16" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_03_15</v>
-      </c>
-      <c r="J16" s="33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E17" s="20">
-        <v>6</v>
-      </c>
-      <c r="F17" s="20">
-        <v>6</v>
-      </c>
-      <c r="G17" s="22">
-        <v>3</v>
-      </c>
-      <c r="H17" s="20">
-        <v>30</v>
-      </c>
-      <c r="I17" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_03_30</v>
-      </c>
-      <c r="J17" s="33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E18" s="20">
-        <v>6</v>
-      </c>
-      <c r="F18" s="20">
-        <v>6</v>
-      </c>
-      <c r="G18" s="22">
-        <v>3</v>
-      </c>
-      <c r="H18" s="20">
-        <v>45</v>
-      </c>
-      <c r="I18" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_03_45</v>
-      </c>
-      <c r="J18" s="33">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D19" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E19" s="20">
-        <v>6</v>
-      </c>
-      <c r="F19" s="20">
-        <v>6</v>
-      </c>
-      <c r="G19" s="22">
-        <v>4</v>
-      </c>
-      <c r="H19" s="20">
-        <v>0</v>
-      </c>
-      <c r="I19" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_04_00</v>
-      </c>
-      <c r="J19" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D20" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E20" s="20">
-        <v>6</v>
-      </c>
-      <c r="F20" s="20">
-        <v>6</v>
-      </c>
-      <c r="G20" s="22">
-        <v>4</v>
-      </c>
-      <c r="H20" s="20">
-        <v>15</v>
-      </c>
-      <c r="I20" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_04_15</v>
-      </c>
-      <c r="J20" s="33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D21" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E21" s="20">
-        <v>6</v>
-      </c>
-      <c r="F21" s="20">
-        <v>6</v>
-      </c>
-      <c r="G21" s="22">
-        <v>4</v>
-      </c>
-      <c r="H21" s="20">
-        <v>30</v>
-      </c>
-      <c r="I21" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_04_30</v>
-      </c>
-      <c r="J21" s="33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D22" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E22" s="20">
-        <v>6</v>
-      </c>
-      <c r="F22" s="20">
-        <v>6</v>
-      </c>
-      <c r="G22" s="22">
-        <v>4</v>
-      </c>
-      <c r="H22" s="20">
-        <v>45</v>
-      </c>
-      <c r="I22" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_04_45</v>
-      </c>
-      <c r="J22" s="33">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D23" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E23" s="20">
-        <v>6</v>
-      </c>
-      <c r="F23" s="20">
-        <v>6</v>
-      </c>
-      <c r="G23" s="22">
-        <v>5</v>
-      </c>
-      <c r="H23" s="20">
-        <v>0</v>
-      </c>
-      <c r="I23" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_05_00</v>
-      </c>
-      <c r="J23" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D24" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E24" s="20">
-        <v>6</v>
-      </c>
-      <c r="F24" s="20">
-        <v>6</v>
-      </c>
-      <c r="G24" s="22">
-        <v>5</v>
-      </c>
-      <c r="H24" s="20">
-        <v>15</v>
-      </c>
-      <c r="I24" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_05_15</v>
-      </c>
-      <c r="J24" s="33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D25" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E25" s="20">
-        <v>6</v>
-      </c>
-      <c r="F25" s="20">
-        <v>6</v>
-      </c>
-      <c r="G25" s="22">
-        <v>5</v>
-      </c>
-      <c r="H25" s="20">
-        <v>30</v>
-      </c>
-      <c r="I25" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_05_30</v>
-      </c>
-      <c r="J25" s="33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E26" s="20">
-        <v>6</v>
-      </c>
-      <c r="F26" s="20">
-        <v>6</v>
-      </c>
-      <c r="G26" s="22">
-        <v>5</v>
-      </c>
-      <c r="H26" s="20">
-        <v>45</v>
-      </c>
-      <c r="I26" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_05_45</v>
-      </c>
-      <c r="J26" s="33">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E27" s="20">
-        <v>6</v>
-      </c>
-      <c r="F27" s="20">
-        <v>6</v>
-      </c>
-      <c r="G27" s="22">
-        <v>6</v>
-      </c>
-      <c r="H27" s="20">
-        <v>0</v>
-      </c>
-      <c r="I27" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_06_00</v>
-      </c>
-      <c r="J27" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E28" s="20">
-        <v>6</v>
-      </c>
-      <c r="F28" s="20">
-        <v>6</v>
-      </c>
-      <c r="G28" s="22">
-        <v>6</v>
-      </c>
-      <c r="H28" s="20">
-        <v>15</v>
-      </c>
-      <c r="I28" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_06_15</v>
-      </c>
-      <c r="J28" s="33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D29" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E29" s="20">
-        <v>6</v>
-      </c>
-      <c r="F29" s="20">
-        <v>6</v>
-      </c>
-      <c r="G29" s="22">
-        <v>6</v>
-      </c>
-      <c r="H29" s="20">
-        <v>30</v>
-      </c>
-      <c r="I29" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_06_30</v>
-      </c>
-      <c r="J29" s="33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E30" s="20">
-        <v>6</v>
-      </c>
-      <c r="F30" s="20">
-        <v>6</v>
-      </c>
-      <c r="G30" s="22">
-        <v>6</v>
-      </c>
-      <c r="H30" s="20">
-        <v>45</v>
-      </c>
-      <c r="I30" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_06_45</v>
-      </c>
-      <c r="J30" s="33">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D31" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E31" s="20">
-        <v>6</v>
-      </c>
-      <c r="F31" s="20">
-        <v>6</v>
-      </c>
-      <c r="G31" s="22">
-        <v>7</v>
-      </c>
-      <c r="H31" s="20">
-        <v>0</v>
-      </c>
-      <c r="I31" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_07_00</v>
-      </c>
-      <c r="J31" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D32" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E32" s="20">
-        <v>6</v>
-      </c>
-      <c r="F32" s="20">
-        <v>6</v>
-      </c>
-      <c r="G32" s="22">
-        <v>7</v>
-      </c>
-      <c r="H32" s="20">
-        <v>15</v>
-      </c>
-      <c r="I32" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_07_15</v>
-      </c>
-      <c r="J32" s="33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D33" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E33" s="20">
-        <v>6</v>
-      </c>
-      <c r="F33" s="20">
-        <v>6</v>
-      </c>
-      <c r="G33" s="22">
-        <v>7</v>
-      </c>
-      <c r="H33" s="20">
-        <v>30</v>
-      </c>
-      <c r="I33" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_07_30</v>
-      </c>
-      <c r="J33" s="33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E34" s="20">
-        <v>6</v>
-      </c>
-      <c r="F34" s="20">
-        <v>6</v>
-      </c>
-      <c r="G34" s="22">
-        <v>7</v>
-      </c>
-      <c r="H34" s="20">
-        <v>45</v>
-      </c>
-      <c r="I34" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_07_45</v>
-      </c>
-      <c r="J34" s="33">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D35" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E35" s="20">
-        <v>6</v>
-      </c>
-      <c r="F35" s="20">
-        <v>6</v>
-      </c>
-      <c r="G35" s="22">
-        <v>8</v>
-      </c>
-      <c r="H35" s="20">
-        <v>0</v>
-      </c>
-      <c r="I35" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_08_00</v>
-      </c>
-      <c r="J35" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E36" s="20">
-        <v>6</v>
-      </c>
-      <c r="F36" s="20">
-        <v>6</v>
-      </c>
-      <c r="G36" s="22">
-        <v>8</v>
-      </c>
-      <c r="H36" s="20">
-        <v>15</v>
-      </c>
-      <c r="I36" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_08_15</v>
-      </c>
-      <c r="J36" s="33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D37" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E37" s="20">
-        <v>6</v>
-      </c>
-      <c r="F37" s="20">
-        <v>6</v>
-      </c>
-      <c r="G37" s="22">
-        <v>8</v>
-      </c>
-      <c r="H37" s="20">
-        <v>30</v>
-      </c>
-      <c r="I37" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_08_30</v>
-      </c>
-      <c r="J37" s="33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D38" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E38" s="20">
-        <v>6</v>
-      </c>
-      <c r="F38" s="20">
-        <v>6</v>
-      </c>
-      <c r="G38" s="22">
-        <v>8</v>
-      </c>
-      <c r="H38" s="20">
-        <v>45</v>
-      </c>
-      <c r="I38" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_08_45</v>
-      </c>
-      <c r="J38" s="33">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D39" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E39" s="20">
-        <v>6</v>
-      </c>
-      <c r="F39" s="20">
-        <v>6</v>
-      </c>
-      <c r="G39" s="22">
-        <v>9</v>
-      </c>
-      <c r="H39" s="20">
-        <v>0</v>
-      </c>
-      <c r="I39" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_09_00</v>
-      </c>
-      <c r="J39" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D40" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E40" s="20">
-        <v>6</v>
-      </c>
-      <c r="F40" s="20">
-        <v>6</v>
-      </c>
-      <c r="G40" s="22">
-        <v>9</v>
-      </c>
-      <c r="H40" s="20">
-        <v>15</v>
-      </c>
-      <c r="I40" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_09_15</v>
-      </c>
-      <c r="J40" s="33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D41" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E41" s="20">
-        <v>6</v>
-      </c>
-      <c r="F41" s="20">
-        <v>6</v>
-      </c>
-      <c r="G41" s="22">
-        <v>9</v>
-      </c>
-      <c r="H41" s="20">
-        <v>30</v>
-      </c>
-      <c r="I41" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_09_30</v>
-      </c>
-      <c r="J41" s="33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D42" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E42" s="20">
-        <v>6</v>
-      </c>
-      <c r="F42" s="20">
-        <v>6</v>
-      </c>
-      <c r="G42" s="22">
-        <v>9</v>
-      </c>
-      <c r="H42" s="20">
-        <v>45</v>
-      </c>
-      <c r="I42" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_09_45</v>
-      </c>
-      <c r="J42" s="33">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D43" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E43" s="20">
-        <v>6</v>
-      </c>
-      <c r="F43" s="20">
-        <v>6</v>
-      </c>
-      <c r="G43" s="22">
-        <v>10</v>
-      </c>
-      <c r="H43" s="20">
-        <v>0</v>
-      </c>
-      <c r="I43" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_10_00</v>
-      </c>
-      <c r="J43" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D44" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E44" s="20">
-        <v>6</v>
-      </c>
-      <c r="F44" s="20">
-        <v>6</v>
-      </c>
-      <c r="G44" s="22">
-        <v>10</v>
-      </c>
-      <c r="H44" s="20">
-        <v>15</v>
-      </c>
-      <c r="I44" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_10_15</v>
-      </c>
-      <c r="J44" s="33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D45" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E45" s="20">
-        <v>6</v>
-      </c>
-      <c r="F45" s="20">
-        <v>6</v>
-      </c>
-      <c r="G45" s="22">
-        <v>10</v>
-      </c>
-      <c r="H45" s="20">
-        <v>30</v>
-      </c>
-      <c r="I45" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_10_30</v>
-      </c>
-      <c r="J45" s="33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D46" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E46" s="20">
-        <v>6</v>
-      </c>
-      <c r="F46" s="20">
-        <v>6</v>
-      </c>
-      <c r="G46" s="22">
-        <v>10</v>
-      </c>
-      <c r="H46" s="20">
-        <v>45</v>
-      </c>
-      <c r="I46" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_10_45</v>
-      </c>
-      <c r="J46" s="33">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D47" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E47" s="20">
-        <v>6</v>
-      </c>
-      <c r="F47" s="20">
-        <v>6</v>
-      </c>
-      <c r="G47" s="22">
-        <v>11</v>
-      </c>
-      <c r="H47" s="20">
-        <v>0</v>
-      </c>
-      <c r="I47" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_11_00</v>
-      </c>
-      <c r="J47" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D48" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E48" s="20">
-        <v>6</v>
-      </c>
-      <c r="F48" s="20">
-        <v>6</v>
-      </c>
-      <c r="G48" s="22">
-        <v>11</v>
-      </c>
-      <c r="H48" s="20">
-        <v>15</v>
-      </c>
-      <c r="I48" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_11_15</v>
-      </c>
-      <c r="J48" s="33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D49" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E49" s="20">
-        <v>6</v>
-      </c>
-      <c r="F49" s="20">
-        <v>6</v>
-      </c>
-      <c r="G49" s="22">
-        <v>11</v>
-      </c>
-      <c r="H49" s="20">
-        <v>30</v>
-      </c>
-      <c r="I49" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_11_30</v>
-      </c>
-      <c r="J49" s="33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D50" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E50" s="20">
-        <v>6</v>
-      </c>
-      <c r="F50" s="20">
-        <v>6</v>
-      </c>
-      <c r="G50" s="22">
-        <v>11</v>
-      </c>
-      <c r="H50" s="20">
-        <v>45</v>
-      </c>
-      <c r="I50" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_11_45</v>
-      </c>
-      <c r="J50" s="33">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D51" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E51" s="20">
-        <v>6</v>
-      </c>
-      <c r="F51" s="20">
-        <v>6</v>
-      </c>
-      <c r="G51" s="22">
-        <v>12</v>
-      </c>
-      <c r="H51" s="20">
-        <v>0</v>
-      </c>
-      <c r="I51" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_12_00</v>
-      </c>
-      <c r="J51" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D52" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E52" s="20">
-        <v>6</v>
-      </c>
-      <c r="F52" s="20">
-        <v>6</v>
-      </c>
-      <c r="G52" s="22">
-        <v>12</v>
-      </c>
-      <c r="H52" s="20">
-        <v>15</v>
-      </c>
-      <c r="I52" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_12_15</v>
-      </c>
-      <c r="J52" s="33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D53" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E53" s="20">
-        <v>6</v>
-      </c>
-      <c r="F53" s="20">
-        <v>6</v>
-      </c>
-      <c r="G53" s="22">
-        <v>12</v>
-      </c>
-      <c r="H53" s="20">
-        <v>30</v>
-      </c>
-      <c r="I53" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_12_30</v>
-      </c>
-      <c r="J53" s="33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D54" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E54" s="20">
-        <v>6</v>
-      </c>
-      <c r="F54" s="20">
-        <v>6</v>
-      </c>
-      <c r="G54" s="22">
-        <v>12</v>
-      </c>
-      <c r="H54" s="20">
-        <v>45</v>
-      </c>
-      <c r="I54" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_12_45</v>
-      </c>
-      <c r="J54" s="33">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D55" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E55" s="20">
-        <v>6</v>
-      </c>
-      <c r="F55" s="20">
-        <v>6</v>
-      </c>
-      <c r="G55" s="22">
-        <v>13</v>
-      </c>
-      <c r="H55" s="20">
-        <v>0</v>
-      </c>
-      <c r="I55" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_13_00</v>
-      </c>
-      <c r="J55" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D56" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E56" s="20">
-        <v>6</v>
-      </c>
-      <c r="F56" s="20">
-        <v>6</v>
-      </c>
-      <c r="G56" s="22">
-        <v>13</v>
-      </c>
-      <c r="H56" s="20">
-        <v>15</v>
-      </c>
-      <c r="I56" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_13_15</v>
-      </c>
-      <c r="J56" s="33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D57" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E57" s="20">
-        <v>6</v>
-      </c>
-      <c r="F57" s="20">
-        <v>6</v>
-      </c>
-      <c r="G57" s="22">
-        <v>13</v>
-      </c>
-      <c r="H57" s="20">
-        <v>30</v>
-      </c>
-      <c r="I57" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_13_30</v>
-      </c>
-      <c r="J57" s="33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D58" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E58" s="20">
-        <v>6</v>
-      </c>
-      <c r="F58" s="20">
-        <v>6</v>
-      </c>
-      <c r="G58" s="22">
-        <v>13</v>
-      </c>
-      <c r="H58" s="20">
-        <v>45</v>
-      </c>
-      <c r="I58" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_13_45</v>
-      </c>
-      <c r="J58" s="33">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D59" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E59" s="20">
-        <v>6</v>
-      </c>
-      <c r="F59" s="20">
-        <v>6</v>
-      </c>
-      <c r="G59" s="22">
-        <v>14</v>
-      </c>
-      <c r="H59" s="20">
-        <v>0</v>
-      </c>
-      <c r="I59" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_14_00</v>
-      </c>
-      <c r="J59" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D60" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E60" s="20">
-        <v>6</v>
-      </c>
-      <c r="F60" s="20">
-        <v>6</v>
-      </c>
-      <c r="G60" s="22">
-        <v>14</v>
-      </c>
-      <c r="H60" s="20">
-        <v>15</v>
-      </c>
-      <c r="I60" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_14_15</v>
-      </c>
-      <c r="J60" s="33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D61" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E61" s="20">
-        <v>6</v>
-      </c>
-      <c r="F61" s="20">
-        <v>6</v>
-      </c>
-      <c r="G61" s="22">
-        <v>14</v>
-      </c>
-      <c r="H61" s="20">
-        <v>30</v>
-      </c>
-      <c r="I61" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_14_30</v>
-      </c>
-      <c r="J61" s="33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D62" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E62" s="20">
-        <v>6</v>
-      </c>
-      <c r="F62" s="20">
-        <v>6</v>
-      </c>
-      <c r="G62" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="H62" s="20">
-        <v>2</v>
-      </c>
-      <c r="I62" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_Std1_02</v>
-      </c>
-      <c r="J62" s="33"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D63" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E63" s="20">
-        <v>6</v>
-      </c>
-      <c r="F63" s="20">
-        <v>6</v>
-      </c>
-      <c r="G63" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="H63" s="20">
-        <v>2</v>
-      </c>
-      <c r="I63" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_Std2_02</v>
-      </c>
-      <c r="J63" s="33"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D64" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E64" s="20">
-        <v>6</v>
-      </c>
-      <c r="F64" s="20">
-        <v>6</v>
-      </c>
-      <c r="G64" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="H64" s="20">
-        <v>2</v>
-      </c>
-      <c r="I64" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_Std3_02</v>
-      </c>
-      <c r="J64" s="33"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D65" s="20">
-        <v>2013</v>
-      </c>
-      <c r="E65" s="20">
-        <v>6</v>
-      </c>
-      <c r="F65" s="20">
-        <v>6</v>
-      </c>
-      <c r="G65" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="H65" s="20">
-        <v>2</v>
-      </c>
-      <c r="I65" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>EB_2013_06_06_Std4_02</v>
-      </c>
-      <c r="J65" s="33"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J66" s="33"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J67" s="33"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J68" s="33"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J69" s="33"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J70" s="33"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J71" s="33"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J72" s="33"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J73" s="33"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J74" s="33"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J75" s="33"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J76" s="33"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J77" s="33"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J78" s="33"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J79" s="33"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J80" s="33"/>
-    </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J81" s="33"/>
-    </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J82" s="33"/>
-    </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J83" s="33"/>
-    </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J84" s="33"/>
-    </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J85" s="33"/>
-    </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J86" s="33"/>
-    </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J87" s="33"/>
-    </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J88" s="33"/>
-    </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J89" s="33"/>
-    </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J90" s="33"/>
-    </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J91" s="33"/>
-    </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J92" s="33"/>
-    </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J93" s="33"/>
-    </row>
-    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J94" s="33"/>
-    </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J95" s="33"/>
-    </row>
-    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J96" s="33"/>
-    </row>
-    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J97" s="33"/>
-    </row>
-    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J98" s="33"/>
-    </row>
-    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J99" s="33"/>
-    </row>
-    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J100" s="33"/>
-    </row>
-    <row r="101" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J101" s="33"/>
-    </row>
-    <row r="102" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J102" s="33"/>
-    </row>
-    <row r="103" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J103" s="33"/>
-    </row>
-    <row r="104" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J104" s="33"/>
-    </row>
-    <row r="105" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J105" s="33"/>
-    </row>
-    <row r="106" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J106" s="33"/>
-    </row>
-    <row r="107" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J107" s="33"/>
-    </row>
-    <row r="108" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J108" s="33"/>
-    </row>
-    <row r="109" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J109" s="33"/>
-    </row>
-    <row r="110" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J110" s="33"/>
-    </row>
-    <row r="111" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J111" s="33"/>
-    </row>
-    <row r="112" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J112" s="33"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>